--- a/Standard_curve/NanoLuc (FRZ).xlsx
+++ b/Standard_curve/NanoLuc (FRZ).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxzxc\Desktop\Python\Standard_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3380480-09A1-4F9D-B505-BBF334FB981E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04A180-15B1-444A-B1EC-CCFE33719C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1943" yWindow="735" windowWidth="18352" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2152" windowWidth="21330" windowHeight="10576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intact (PEI_HBSS)" sheetId="4" r:id="rId1"/>
-    <sheet name="Lysed (Nano-Glo)" sheetId="6" r:id="rId2"/>
-    <sheet name="Lysed (HBSS)" sheetId="2" r:id="rId3"/>
+    <sheet name="Lysed (HBSS)" sheetId="2" r:id="rId2"/>
+    <sheet name="Lysed (Nano-Glo)" sheetId="6" r:id="rId3"/>
     <sheet name="Lysed (opt_PBS)" sheetId="3" r:id="rId4"/>
+    <sheet name="Lysed (opt_MES)" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1933,6 +1934,1582 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B136189D-1154-46C6-9BCA-FB210D19ACC9}">
+  <dimension ref="A1:AK14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AK14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B1">
+        <v>9.765625</v>
+      </c>
+      <c r="C1">
+        <v>9.765625</v>
+      </c>
+      <c r="D1">
+        <v>9.765625</v>
+      </c>
+      <c r="E1">
+        <v>19.53125</v>
+      </c>
+      <c r="F1">
+        <v>19.53125</v>
+      </c>
+      <c r="G1">
+        <v>19.53125</v>
+      </c>
+      <c r="H1">
+        <v>39.0625</v>
+      </c>
+      <c r="I1">
+        <v>39.0625</v>
+      </c>
+      <c r="J1">
+        <v>39.0625</v>
+      </c>
+      <c r="K1">
+        <v>78.125</v>
+      </c>
+      <c r="L1">
+        <v>78.125</v>
+      </c>
+      <c r="M1">
+        <v>78.125</v>
+      </c>
+      <c r="N1">
+        <v>156.25</v>
+      </c>
+      <c r="O1">
+        <v>156.25</v>
+      </c>
+      <c r="P1">
+        <v>156.25</v>
+      </c>
+      <c r="Q1">
+        <v>312.5</v>
+      </c>
+      <c r="R1">
+        <v>312.5</v>
+      </c>
+      <c r="S1">
+        <v>312.5</v>
+      </c>
+      <c r="T1">
+        <v>625</v>
+      </c>
+      <c r="U1">
+        <v>625</v>
+      </c>
+      <c r="V1">
+        <v>625</v>
+      </c>
+      <c r="W1">
+        <v>1250</v>
+      </c>
+      <c r="X1">
+        <v>1250</v>
+      </c>
+      <c r="Y1">
+        <v>1250</v>
+      </c>
+      <c r="Z1">
+        <v>2500</v>
+      </c>
+      <c r="AA1">
+        <v>2500</v>
+      </c>
+      <c r="AB1">
+        <v>2500</v>
+      </c>
+      <c r="AC1">
+        <v>5000</v>
+      </c>
+      <c r="AD1">
+        <v>5000</v>
+      </c>
+      <c r="AE1">
+        <v>5000</v>
+      </c>
+      <c r="AF1">
+        <v>10000</v>
+      </c>
+      <c r="AG1">
+        <v>10000</v>
+      </c>
+      <c r="AH1">
+        <v>10000</v>
+      </c>
+      <c r="AI1">
+        <v>20000</v>
+      </c>
+      <c r="AJ1">
+        <v>20000</v>
+      </c>
+      <c r="AK1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3475</v>
+      </c>
+      <c r="C2">
+        <v>4391</v>
+      </c>
+      <c r="D2">
+        <v>4845</v>
+      </c>
+      <c r="E2">
+        <v>15710</v>
+      </c>
+      <c r="F2">
+        <v>17201</v>
+      </c>
+      <c r="G2">
+        <v>9070</v>
+      </c>
+      <c r="H2">
+        <v>24009</v>
+      </c>
+      <c r="I2">
+        <v>60671</v>
+      </c>
+      <c r="J2">
+        <v>36601</v>
+      </c>
+      <c r="K2">
+        <v>151563</v>
+      </c>
+      <c r="L2">
+        <v>201626</v>
+      </c>
+      <c r="M2">
+        <v>202800</v>
+      </c>
+      <c r="N2">
+        <v>427341</v>
+      </c>
+      <c r="O2">
+        <v>537139</v>
+      </c>
+      <c r="P2">
+        <v>586397</v>
+      </c>
+      <c r="Q2">
+        <v>848233</v>
+      </c>
+      <c r="R2">
+        <v>988702</v>
+      </c>
+      <c r="S2">
+        <v>1103089</v>
+      </c>
+      <c r="T2">
+        <v>1656606</v>
+      </c>
+      <c r="U2">
+        <v>1745926</v>
+      </c>
+      <c r="V2">
+        <v>2108183</v>
+      </c>
+      <c r="W2">
+        <v>2781640</v>
+      </c>
+      <c r="X2">
+        <v>2973899</v>
+      </c>
+      <c r="Y2">
+        <v>3295311</v>
+      </c>
+      <c r="Z2">
+        <v>4109938</v>
+      </c>
+      <c r="AA2">
+        <v>4725896</v>
+      </c>
+      <c r="AC2">
+        <v>4912687</v>
+      </c>
+      <c r="AF2">
+        <v>3445261</v>
+      </c>
+      <c r="AI2">
+        <v>2303679</v>
+      </c>
+      <c r="AJ2">
+        <v>5414456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2.5</v>
+      </c>
+      <c r="B3">
+        <v>3527</v>
+      </c>
+      <c r="C3">
+        <v>4055</v>
+      </c>
+      <c r="D3">
+        <v>6240</v>
+      </c>
+      <c r="E3">
+        <v>15293</v>
+      </c>
+      <c r="F3">
+        <v>19910</v>
+      </c>
+      <c r="G3">
+        <v>11181</v>
+      </c>
+      <c r="H3">
+        <v>25070</v>
+      </c>
+      <c r="I3">
+        <v>67407</v>
+      </c>
+      <c r="J3">
+        <v>39512</v>
+      </c>
+      <c r="K3">
+        <v>158307</v>
+      </c>
+      <c r="L3">
+        <v>201564</v>
+      </c>
+      <c r="M3">
+        <v>209499</v>
+      </c>
+      <c r="N3">
+        <v>437171</v>
+      </c>
+      <c r="O3">
+        <v>554436</v>
+      </c>
+      <c r="P3">
+        <v>593870</v>
+      </c>
+      <c r="Q3">
+        <v>865729</v>
+      </c>
+      <c r="R3">
+        <v>1002697</v>
+      </c>
+      <c r="S3">
+        <v>1122515</v>
+      </c>
+      <c r="T3">
+        <v>1644254</v>
+      </c>
+      <c r="U3">
+        <v>1725602</v>
+      </c>
+      <c r="V3">
+        <v>2079515</v>
+      </c>
+      <c r="W3">
+        <v>2632221</v>
+      </c>
+      <c r="X3">
+        <v>2801667</v>
+      </c>
+      <c r="Y3">
+        <v>3153922</v>
+      </c>
+      <c r="Z3">
+        <v>3335810</v>
+      </c>
+      <c r="AA3">
+        <v>3898200</v>
+      </c>
+      <c r="AB3">
+        <v>4733204</v>
+      </c>
+      <c r="AC3">
+        <v>2728596</v>
+      </c>
+      <c r="AD3">
+        <v>4483664</v>
+      </c>
+      <c r="AE3">
+        <v>5683562</v>
+      </c>
+      <c r="AF3">
+        <v>1695418</v>
+      </c>
+      <c r="AG3">
+        <v>3947403</v>
+      </c>
+      <c r="AH3">
+        <v>5394508</v>
+      </c>
+      <c r="AI3">
+        <v>1241987</v>
+      </c>
+      <c r="AJ3">
+        <v>3136307</v>
+      </c>
+      <c r="AK3">
+        <v>3896105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3243</v>
+      </c>
+      <c r="C4">
+        <v>4237</v>
+      </c>
+      <c r="D4">
+        <v>7342</v>
+      </c>
+      <c r="E4">
+        <v>15125</v>
+      </c>
+      <c r="F4">
+        <v>21751</v>
+      </c>
+      <c r="G4">
+        <v>12325</v>
+      </c>
+      <c r="H4">
+        <v>25323</v>
+      </c>
+      <c r="I4">
+        <v>69683</v>
+      </c>
+      <c r="J4">
+        <v>41064</v>
+      </c>
+      <c r="K4">
+        <v>171005</v>
+      </c>
+      <c r="L4">
+        <v>217082</v>
+      </c>
+      <c r="M4">
+        <v>213541</v>
+      </c>
+      <c r="N4">
+        <v>453236</v>
+      </c>
+      <c r="O4">
+        <v>568641</v>
+      </c>
+      <c r="P4">
+        <v>593882</v>
+      </c>
+      <c r="Q4">
+        <v>890840</v>
+      </c>
+      <c r="R4">
+        <v>991630</v>
+      </c>
+      <c r="S4">
+        <v>1120645</v>
+      </c>
+      <c r="T4">
+        <v>1613056</v>
+      </c>
+      <c r="U4">
+        <v>1698006</v>
+      </c>
+      <c r="V4">
+        <v>2047197</v>
+      </c>
+      <c r="W4">
+        <v>2459970</v>
+      </c>
+      <c r="X4">
+        <v>2619478</v>
+      </c>
+      <c r="Y4">
+        <v>2950650</v>
+      </c>
+      <c r="Z4">
+        <v>2649257</v>
+      </c>
+      <c r="AA4">
+        <v>3366763</v>
+      </c>
+      <c r="AB4">
+        <v>3912268</v>
+      </c>
+      <c r="AC4">
+        <v>1914127</v>
+      </c>
+      <c r="AD4">
+        <v>3479000</v>
+      </c>
+      <c r="AE4">
+        <v>4185469</v>
+      </c>
+      <c r="AF4">
+        <v>1317002</v>
+      </c>
+      <c r="AG4">
+        <v>3061712</v>
+      </c>
+      <c r="AH4">
+        <v>3767324</v>
+      </c>
+      <c r="AI4">
+        <v>1099337</v>
+      </c>
+      <c r="AJ4">
+        <v>2713647</v>
+      </c>
+      <c r="AK4">
+        <v>2526903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>7.5</v>
+      </c>
+      <c r="B5">
+        <v>3256</v>
+      </c>
+      <c r="C5">
+        <v>4096</v>
+      </c>
+      <c r="D5">
+        <v>7471</v>
+      </c>
+      <c r="E5">
+        <v>15414</v>
+      </c>
+      <c r="F5">
+        <v>23174</v>
+      </c>
+      <c r="G5">
+        <v>12953</v>
+      </c>
+      <c r="H5">
+        <v>26484</v>
+      </c>
+      <c r="I5">
+        <v>72027</v>
+      </c>
+      <c r="J5">
+        <v>44094</v>
+      </c>
+      <c r="K5">
+        <v>179057</v>
+      </c>
+      <c r="L5">
+        <v>217350</v>
+      </c>
+      <c r="M5">
+        <v>220420</v>
+      </c>
+      <c r="N5">
+        <v>465770</v>
+      </c>
+      <c r="O5">
+        <v>580487</v>
+      </c>
+      <c r="P5">
+        <v>588353</v>
+      </c>
+      <c r="Q5">
+        <v>895068</v>
+      </c>
+      <c r="R5">
+        <v>1002390</v>
+      </c>
+      <c r="S5">
+        <v>1098524</v>
+      </c>
+      <c r="T5">
+        <v>1631542</v>
+      </c>
+      <c r="U5">
+        <v>1675271</v>
+      </c>
+      <c r="V5">
+        <v>1978482</v>
+      </c>
+      <c r="W5">
+        <v>2256384</v>
+      </c>
+      <c r="X5">
+        <v>2440585</v>
+      </c>
+      <c r="Y5">
+        <v>2797716</v>
+      </c>
+      <c r="Z5">
+        <v>2228303</v>
+      </c>
+      <c r="AA5">
+        <v>2887378</v>
+      </c>
+      <c r="AB5">
+        <v>3458179</v>
+      </c>
+      <c r="AC5">
+        <v>1487193</v>
+      </c>
+      <c r="AD5">
+        <v>2920418</v>
+      </c>
+      <c r="AE5">
+        <v>3375404</v>
+      </c>
+      <c r="AF5">
+        <v>1170279</v>
+      </c>
+      <c r="AG5">
+        <v>2599252</v>
+      </c>
+      <c r="AH5">
+        <v>2955601</v>
+      </c>
+      <c r="AI5">
+        <v>1073355</v>
+      </c>
+      <c r="AJ5">
+        <v>2587723</v>
+      </c>
+      <c r="AK5">
+        <v>2263283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3285</v>
+      </c>
+      <c r="C6">
+        <v>4335</v>
+      </c>
+      <c r="D6">
+        <v>7609</v>
+      </c>
+      <c r="E6">
+        <v>16494</v>
+      </c>
+      <c r="F6">
+        <v>21996</v>
+      </c>
+      <c r="G6">
+        <v>13374</v>
+      </c>
+      <c r="H6">
+        <v>27600</v>
+      </c>
+      <c r="I6">
+        <v>69072</v>
+      </c>
+      <c r="J6">
+        <v>44238</v>
+      </c>
+      <c r="K6">
+        <v>172320</v>
+      </c>
+      <c r="L6">
+        <v>211078</v>
+      </c>
+      <c r="M6">
+        <v>208647</v>
+      </c>
+      <c r="N6">
+        <v>462490</v>
+      </c>
+      <c r="O6">
+        <v>548761</v>
+      </c>
+      <c r="P6">
+        <v>541081</v>
+      </c>
+      <c r="Q6">
+        <v>872188</v>
+      </c>
+      <c r="R6">
+        <v>953084</v>
+      </c>
+      <c r="S6">
+        <v>998621</v>
+      </c>
+      <c r="T6">
+        <v>1530888</v>
+      </c>
+      <c r="U6">
+        <v>1553991</v>
+      </c>
+      <c r="V6">
+        <v>1792240</v>
+      </c>
+      <c r="W6">
+        <v>1974166</v>
+      </c>
+      <c r="X6">
+        <v>2200472</v>
+      </c>
+      <c r="Y6">
+        <v>2467064</v>
+      </c>
+      <c r="Z6">
+        <v>1839339</v>
+      </c>
+      <c r="AA6">
+        <v>2545954</v>
+      </c>
+      <c r="AB6">
+        <v>2831843</v>
+      </c>
+      <c r="AC6">
+        <v>1240575</v>
+      </c>
+      <c r="AD6">
+        <v>2441133</v>
+      </c>
+      <c r="AE6">
+        <v>2730945</v>
+      </c>
+      <c r="AF6">
+        <v>1061681</v>
+      </c>
+      <c r="AG6">
+        <v>2316657</v>
+      </c>
+      <c r="AH6">
+        <v>2358048</v>
+      </c>
+      <c r="AI6">
+        <v>1052616</v>
+      </c>
+      <c r="AJ6">
+        <v>2342928</v>
+      </c>
+      <c r="AK6">
+        <v>2041512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>12.5</v>
+      </c>
+      <c r="B7">
+        <v>3030</v>
+      </c>
+      <c r="C7">
+        <v>4722</v>
+      </c>
+      <c r="D7">
+        <v>7660</v>
+      </c>
+      <c r="E7">
+        <v>16171</v>
+      </c>
+      <c r="F7">
+        <v>23243</v>
+      </c>
+      <c r="G7">
+        <v>13374</v>
+      </c>
+      <c r="H7">
+        <v>27096</v>
+      </c>
+      <c r="I7">
+        <v>69137</v>
+      </c>
+      <c r="J7">
+        <v>43912</v>
+      </c>
+      <c r="K7">
+        <v>166951</v>
+      </c>
+      <c r="L7">
+        <v>209091</v>
+      </c>
+      <c r="M7">
+        <v>211318</v>
+      </c>
+      <c r="N7">
+        <v>448873</v>
+      </c>
+      <c r="O7">
+        <v>540791</v>
+      </c>
+      <c r="P7">
+        <v>540743</v>
+      </c>
+      <c r="Q7">
+        <v>822616</v>
+      </c>
+      <c r="R7">
+        <v>916524</v>
+      </c>
+      <c r="S7">
+        <v>988473</v>
+      </c>
+      <c r="T7">
+        <v>1363665</v>
+      </c>
+      <c r="U7">
+        <v>1490450</v>
+      </c>
+      <c r="V7">
+        <v>1727909</v>
+      </c>
+      <c r="W7">
+        <v>1711436</v>
+      </c>
+      <c r="X7">
+        <v>2010439</v>
+      </c>
+      <c r="Y7">
+        <v>2320338</v>
+      </c>
+      <c r="Z7">
+        <v>1532311</v>
+      </c>
+      <c r="AA7">
+        <v>2271556</v>
+      </c>
+      <c r="AB7">
+        <v>2548137</v>
+      </c>
+      <c r="AC7">
+        <v>1057655</v>
+      </c>
+      <c r="AD7">
+        <v>2153693</v>
+      </c>
+      <c r="AE7">
+        <v>2391549</v>
+      </c>
+      <c r="AF7">
+        <v>949929</v>
+      </c>
+      <c r="AG7">
+        <v>2118149</v>
+      </c>
+      <c r="AH7">
+        <v>2111536</v>
+      </c>
+      <c r="AI7">
+        <v>1006873</v>
+      </c>
+      <c r="AJ7">
+        <v>2267457</v>
+      </c>
+      <c r="AK7">
+        <v>1961383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2777</v>
+      </c>
+      <c r="C8">
+        <v>4267</v>
+      </c>
+      <c r="D8">
+        <v>7085</v>
+      </c>
+      <c r="E8">
+        <v>15870</v>
+      </c>
+      <c r="F8">
+        <v>22957</v>
+      </c>
+      <c r="G8">
+        <v>14010</v>
+      </c>
+      <c r="H8">
+        <v>27376</v>
+      </c>
+      <c r="I8">
+        <v>68996</v>
+      </c>
+      <c r="J8">
+        <v>44128</v>
+      </c>
+      <c r="K8">
+        <v>171813</v>
+      </c>
+      <c r="L8">
+        <v>217446</v>
+      </c>
+      <c r="M8">
+        <v>209164</v>
+      </c>
+      <c r="N8">
+        <v>446997</v>
+      </c>
+      <c r="O8">
+        <v>529831</v>
+      </c>
+      <c r="P8">
+        <v>525272</v>
+      </c>
+      <c r="Q8">
+        <v>804715</v>
+      </c>
+      <c r="R8">
+        <v>890938</v>
+      </c>
+      <c r="S8">
+        <v>964500</v>
+      </c>
+      <c r="T8">
+        <v>1313337</v>
+      </c>
+      <c r="U8">
+        <v>1433173</v>
+      </c>
+      <c r="V8">
+        <v>1661288</v>
+      </c>
+      <c r="W8">
+        <v>1537255</v>
+      </c>
+      <c r="X8">
+        <v>1979672</v>
+      </c>
+      <c r="Y8">
+        <v>2179207</v>
+      </c>
+      <c r="Z8">
+        <v>1358223</v>
+      </c>
+      <c r="AA8">
+        <v>2129631</v>
+      </c>
+      <c r="AB8">
+        <v>2392691</v>
+      </c>
+      <c r="AC8">
+        <v>967172</v>
+      </c>
+      <c r="AD8">
+        <v>2038243</v>
+      </c>
+      <c r="AE8">
+        <v>2166658</v>
+      </c>
+      <c r="AF8">
+        <v>914496</v>
+      </c>
+      <c r="AG8">
+        <v>2044936</v>
+      </c>
+      <c r="AH8">
+        <v>2015569</v>
+      </c>
+      <c r="AI8">
+        <v>957111</v>
+      </c>
+      <c r="AJ8">
+        <v>2156109</v>
+      </c>
+      <c r="AK8">
+        <v>1915901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>17.5</v>
+      </c>
+      <c r="B9">
+        <v>2888</v>
+      </c>
+      <c r="C9">
+        <v>4264</v>
+      </c>
+      <c r="D9">
+        <v>7437</v>
+      </c>
+      <c r="E9">
+        <v>15924</v>
+      </c>
+      <c r="F9">
+        <v>22801</v>
+      </c>
+      <c r="G9">
+        <v>13936</v>
+      </c>
+      <c r="H9">
+        <v>27670</v>
+      </c>
+      <c r="I9">
+        <v>69733</v>
+      </c>
+      <c r="J9">
+        <v>43887</v>
+      </c>
+      <c r="K9">
+        <v>164111</v>
+      </c>
+      <c r="L9">
+        <v>211603</v>
+      </c>
+      <c r="M9">
+        <v>205142</v>
+      </c>
+      <c r="N9">
+        <v>440984</v>
+      </c>
+      <c r="O9">
+        <v>520186</v>
+      </c>
+      <c r="P9">
+        <v>518279</v>
+      </c>
+      <c r="Q9">
+        <v>784446</v>
+      </c>
+      <c r="R9">
+        <v>877490</v>
+      </c>
+      <c r="S9">
+        <v>937854</v>
+      </c>
+      <c r="T9">
+        <v>1257472</v>
+      </c>
+      <c r="U9">
+        <v>1397459</v>
+      </c>
+      <c r="V9">
+        <v>1622780</v>
+      </c>
+      <c r="W9">
+        <v>1388769</v>
+      </c>
+      <c r="X9">
+        <v>1815882</v>
+      </c>
+      <c r="Y9">
+        <v>2141783</v>
+      </c>
+      <c r="Z9">
+        <v>1231191</v>
+      </c>
+      <c r="AA9">
+        <v>1989773</v>
+      </c>
+      <c r="AB9">
+        <v>2215965</v>
+      </c>
+      <c r="AC9">
+        <v>897354</v>
+      </c>
+      <c r="AD9">
+        <v>1924526</v>
+      </c>
+      <c r="AE9">
+        <v>2027106</v>
+      </c>
+      <c r="AF9">
+        <v>874989</v>
+      </c>
+      <c r="AG9">
+        <v>1958943</v>
+      </c>
+      <c r="AH9">
+        <v>1886047</v>
+      </c>
+      <c r="AI9">
+        <v>901265</v>
+      </c>
+      <c r="AJ9">
+        <v>2094924</v>
+      </c>
+      <c r="AK9">
+        <v>1860881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>2866</v>
+      </c>
+      <c r="C10">
+        <v>4083</v>
+      </c>
+      <c r="D10">
+        <v>7353</v>
+      </c>
+      <c r="E10">
+        <v>14699</v>
+      </c>
+      <c r="F10">
+        <v>23072</v>
+      </c>
+      <c r="G10">
+        <v>13701</v>
+      </c>
+      <c r="H10">
+        <v>27475</v>
+      </c>
+      <c r="I10">
+        <v>70766</v>
+      </c>
+      <c r="J10">
+        <v>44654</v>
+      </c>
+      <c r="K10">
+        <v>162173</v>
+      </c>
+      <c r="L10">
+        <v>211775</v>
+      </c>
+      <c r="M10">
+        <v>205723</v>
+      </c>
+      <c r="N10">
+        <v>442194</v>
+      </c>
+      <c r="O10">
+        <v>527534</v>
+      </c>
+      <c r="P10">
+        <v>514345</v>
+      </c>
+      <c r="Q10">
+        <v>791508</v>
+      </c>
+      <c r="R10">
+        <v>873525</v>
+      </c>
+      <c r="S10">
+        <v>902778</v>
+      </c>
+      <c r="T10">
+        <v>1196514</v>
+      </c>
+      <c r="U10">
+        <v>1354089</v>
+      </c>
+      <c r="V10">
+        <v>1544364</v>
+      </c>
+      <c r="W10">
+        <v>1279079</v>
+      </c>
+      <c r="X10">
+        <v>1721698</v>
+      </c>
+      <c r="Y10">
+        <v>1996474</v>
+      </c>
+      <c r="Z10">
+        <v>1106883</v>
+      </c>
+      <c r="AA10">
+        <v>1864345</v>
+      </c>
+      <c r="AB10">
+        <v>2124049</v>
+      </c>
+      <c r="AC10">
+        <v>854585</v>
+      </c>
+      <c r="AD10">
+        <v>1797665</v>
+      </c>
+      <c r="AE10">
+        <v>1899609</v>
+      </c>
+      <c r="AF10">
+        <v>826994</v>
+      </c>
+      <c r="AG10">
+        <v>1862766</v>
+      </c>
+      <c r="AH10">
+        <v>1823352</v>
+      </c>
+      <c r="AI10">
+        <v>871925</v>
+      </c>
+      <c r="AJ10">
+        <v>2021973</v>
+      </c>
+      <c r="AK10">
+        <v>1773832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>22.5</v>
+      </c>
+      <c r="B11">
+        <v>2876</v>
+      </c>
+      <c r="C11">
+        <v>3959</v>
+      </c>
+      <c r="D11">
+        <v>7486</v>
+      </c>
+      <c r="E11">
+        <v>14949</v>
+      </c>
+      <c r="F11">
+        <v>24259</v>
+      </c>
+      <c r="G11">
+        <v>13966</v>
+      </c>
+      <c r="H11">
+        <v>27318</v>
+      </c>
+      <c r="I11">
+        <v>71343</v>
+      </c>
+      <c r="J11">
+        <v>43890</v>
+      </c>
+      <c r="K11">
+        <v>164396</v>
+      </c>
+      <c r="L11">
+        <v>207749</v>
+      </c>
+      <c r="M11">
+        <v>198305</v>
+      </c>
+      <c r="N11">
+        <v>430111</v>
+      </c>
+      <c r="O11">
+        <v>514477</v>
+      </c>
+      <c r="P11">
+        <v>502104</v>
+      </c>
+      <c r="Q11">
+        <v>756780</v>
+      </c>
+      <c r="R11">
+        <v>846769</v>
+      </c>
+      <c r="S11">
+        <v>902171</v>
+      </c>
+      <c r="T11">
+        <v>1156536</v>
+      </c>
+      <c r="U11">
+        <v>1288583</v>
+      </c>
+      <c r="V11">
+        <v>1504026</v>
+      </c>
+      <c r="W11">
+        <v>1184071</v>
+      </c>
+      <c r="X11">
+        <v>1652821</v>
+      </c>
+      <c r="Y11">
+        <v>1914243</v>
+      </c>
+      <c r="Z11">
+        <v>1025015</v>
+      </c>
+      <c r="AA11">
+        <v>1779814</v>
+      </c>
+      <c r="AB11">
+        <v>2001683</v>
+      </c>
+      <c r="AC11">
+        <v>811336</v>
+      </c>
+      <c r="AD11">
+        <v>1733053</v>
+      </c>
+      <c r="AE11">
+        <v>1822799</v>
+      </c>
+      <c r="AF11">
+        <v>782690</v>
+      </c>
+      <c r="AG11">
+        <v>1775232</v>
+      </c>
+      <c r="AH11">
+        <v>1735919</v>
+      </c>
+      <c r="AI11">
+        <v>820551</v>
+      </c>
+      <c r="AJ11">
+        <v>1928950</v>
+      </c>
+      <c r="AK11">
+        <v>1688989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2787</v>
+      </c>
+      <c r="C12">
+        <v>3912</v>
+      </c>
+      <c r="D12">
+        <v>7176</v>
+      </c>
+      <c r="E12">
+        <v>14818</v>
+      </c>
+      <c r="F12">
+        <v>23806</v>
+      </c>
+      <c r="G12">
+        <v>13926</v>
+      </c>
+      <c r="H12">
+        <v>26893</v>
+      </c>
+      <c r="I12">
+        <v>70715</v>
+      </c>
+      <c r="J12">
+        <v>42429</v>
+      </c>
+      <c r="K12">
+        <v>159099</v>
+      </c>
+      <c r="L12">
+        <v>202911</v>
+      </c>
+      <c r="M12">
+        <v>202215</v>
+      </c>
+      <c r="N12">
+        <v>426594</v>
+      </c>
+      <c r="O12">
+        <v>505238</v>
+      </c>
+      <c r="P12">
+        <v>487171</v>
+      </c>
+      <c r="Q12">
+        <v>731644</v>
+      </c>
+      <c r="R12">
+        <v>830990</v>
+      </c>
+      <c r="S12">
+        <v>871190</v>
+      </c>
+      <c r="T12">
+        <v>1087241</v>
+      </c>
+      <c r="U12">
+        <v>1274128</v>
+      </c>
+      <c r="V12">
+        <v>1447527</v>
+      </c>
+      <c r="W12">
+        <v>1086095</v>
+      </c>
+      <c r="X12">
+        <v>1624946</v>
+      </c>
+      <c r="Y12">
+        <v>1846432</v>
+      </c>
+      <c r="Z12">
+        <v>960989</v>
+      </c>
+      <c r="AA12">
+        <v>1723129</v>
+      </c>
+      <c r="AB12">
+        <v>1897662</v>
+      </c>
+      <c r="AC12">
+        <v>769229</v>
+      </c>
+      <c r="AD12">
+        <v>1633061</v>
+      </c>
+      <c r="AE12">
+        <v>1684590</v>
+      </c>
+      <c r="AF12">
+        <v>750763</v>
+      </c>
+      <c r="AG12">
+        <v>1698908</v>
+      </c>
+      <c r="AH12">
+        <v>1633197</v>
+      </c>
+      <c r="AI12">
+        <v>784672</v>
+      </c>
+      <c r="AJ12">
+        <v>1845932</v>
+      </c>
+      <c r="AK12">
+        <v>1613273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>27.5</v>
+      </c>
+      <c r="B13">
+        <v>2656</v>
+      </c>
+      <c r="C13">
+        <v>3683</v>
+      </c>
+      <c r="D13">
+        <v>6921</v>
+      </c>
+      <c r="E13">
+        <v>14642</v>
+      </c>
+      <c r="F13">
+        <v>23208</v>
+      </c>
+      <c r="G13">
+        <v>13452</v>
+      </c>
+      <c r="H13">
+        <v>27264</v>
+      </c>
+      <c r="I13">
+        <v>69004</v>
+      </c>
+      <c r="J13">
+        <v>42853</v>
+      </c>
+      <c r="K13">
+        <v>155138</v>
+      </c>
+      <c r="L13">
+        <v>196931</v>
+      </c>
+      <c r="M13">
+        <v>192427</v>
+      </c>
+      <c r="N13">
+        <v>420830</v>
+      </c>
+      <c r="O13">
+        <v>490281</v>
+      </c>
+      <c r="P13">
+        <v>480214</v>
+      </c>
+      <c r="Q13">
+        <v>720517</v>
+      </c>
+      <c r="R13">
+        <v>816184</v>
+      </c>
+      <c r="S13">
+        <v>852464</v>
+      </c>
+      <c r="T13">
+        <v>1044251</v>
+      </c>
+      <c r="U13">
+        <v>1234629</v>
+      </c>
+      <c r="V13">
+        <v>1413178</v>
+      </c>
+      <c r="W13">
+        <v>995456</v>
+      </c>
+      <c r="X13">
+        <v>1559546</v>
+      </c>
+      <c r="Y13">
+        <v>1759504</v>
+      </c>
+      <c r="Z13">
+        <v>891377</v>
+      </c>
+      <c r="AA13">
+        <v>1640466</v>
+      </c>
+      <c r="AB13">
+        <v>1823159</v>
+      </c>
+      <c r="AC13">
+        <v>733634</v>
+      </c>
+      <c r="AD13">
+        <v>1597243</v>
+      </c>
+      <c r="AE13">
+        <v>1595115</v>
+      </c>
+      <c r="AF13">
+        <v>715683</v>
+      </c>
+      <c r="AG13">
+        <v>1612449</v>
+      </c>
+      <c r="AH13">
+        <v>1592144</v>
+      </c>
+      <c r="AI13">
+        <v>739869</v>
+      </c>
+      <c r="AJ13">
+        <v>1778505</v>
+      </c>
+      <c r="AK13">
+        <v>1534299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>2803</v>
+      </c>
+      <c r="C14">
+        <v>3720</v>
+      </c>
+      <c r="D14">
+        <v>7080</v>
+      </c>
+      <c r="E14">
+        <v>14140</v>
+      </c>
+      <c r="F14">
+        <v>23166</v>
+      </c>
+      <c r="G14">
+        <v>14193</v>
+      </c>
+      <c r="H14">
+        <v>27051</v>
+      </c>
+      <c r="I14">
+        <v>69464</v>
+      </c>
+      <c r="J14">
+        <v>42021</v>
+      </c>
+      <c r="K14">
+        <v>156057</v>
+      </c>
+      <c r="L14">
+        <v>200367</v>
+      </c>
+      <c r="M14">
+        <v>187639</v>
+      </c>
+      <c r="N14">
+        <v>413027</v>
+      </c>
+      <c r="O14">
+        <v>479847</v>
+      </c>
+      <c r="P14">
+        <v>472456</v>
+      </c>
+      <c r="Q14">
+        <v>695479</v>
+      </c>
+      <c r="R14">
+        <v>798099</v>
+      </c>
+      <c r="S14">
+        <v>818273</v>
+      </c>
+      <c r="T14">
+        <v>986556</v>
+      </c>
+      <c r="U14">
+        <v>1202288</v>
+      </c>
+      <c r="V14">
+        <v>1376913</v>
+      </c>
+      <c r="W14">
+        <v>951130</v>
+      </c>
+      <c r="X14">
+        <v>1499230</v>
+      </c>
+      <c r="Y14">
+        <v>1726547</v>
+      </c>
+      <c r="Z14">
+        <v>851731</v>
+      </c>
+      <c r="AA14">
+        <v>1574360</v>
+      </c>
+      <c r="AB14">
+        <v>1734329</v>
+      </c>
+      <c r="AC14">
+        <v>719480</v>
+      </c>
+      <c r="AD14">
+        <v>1508267</v>
+      </c>
+      <c r="AE14">
+        <v>1534861</v>
+      </c>
+      <c r="AF14">
+        <v>691322</v>
+      </c>
+      <c r="AG14">
+        <v>1554917</v>
+      </c>
+      <c r="AH14">
+        <v>1505752</v>
+      </c>
+      <c r="AI14">
+        <v>710636</v>
+      </c>
+      <c r="AJ14">
+        <v>1677203</v>
+      </c>
+      <c r="AK14">
+        <v>1460207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C890F49-FEA0-47EB-8916-70F75DA68A15}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
@@ -3520,8 +5097,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B136189D-1154-46C6-9BCA-FB210D19ACC9}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB747E1-E119-4645-9E9D-5E66F2A3ABCF}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,94 +5222,97 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3475</v>
+        <v>22176</v>
       </c>
       <c r="C2">
-        <v>4391</v>
+        <v>18712</v>
       </c>
       <c r="D2">
-        <v>4845</v>
+        <v>27549</v>
       </c>
       <c r="E2">
-        <v>15710</v>
+        <v>39592</v>
       </c>
       <c r="F2">
-        <v>17201</v>
+        <v>35806</v>
       </c>
       <c r="G2">
-        <v>9070</v>
+        <v>50648</v>
       </c>
       <c r="H2">
-        <v>24009</v>
+        <v>66631</v>
       </c>
       <c r="I2">
-        <v>60671</v>
+        <v>64985</v>
       </c>
       <c r="J2">
-        <v>36601</v>
+        <v>90488</v>
       </c>
       <c r="K2">
-        <v>151563</v>
+        <v>113489</v>
       </c>
       <c r="L2">
-        <v>201626</v>
+        <v>116090</v>
       </c>
       <c r="M2">
-        <v>202800</v>
+        <v>143876</v>
       </c>
       <c r="N2">
-        <v>427341</v>
+        <v>200824</v>
       </c>
       <c r="O2">
-        <v>537139</v>
+        <v>223385</v>
       </c>
       <c r="P2">
-        <v>586397</v>
+        <v>277343</v>
       </c>
       <c r="Q2">
-        <v>848233</v>
+        <v>366509</v>
       </c>
       <c r="R2">
-        <v>988702</v>
+        <v>392426</v>
       </c>
       <c r="S2">
-        <v>1103089</v>
+        <v>504693</v>
       </c>
       <c r="T2">
-        <v>1656606</v>
+        <v>647950</v>
       </c>
       <c r="U2">
-        <v>1745926</v>
+        <v>673766</v>
       </c>
       <c r="V2">
-        <v>2108183</v>
+        <v>874656</v>
       </c>
       <c r="W2">
-        <v>2781640</v>
+        <v>1221781</v>
       </c>
       <c r="X2">
-        <v>2973899</v>
+        <v>1392159</v>
       </c>
       <c r="Y2">
-        <v>3295311</v>
+        <v>1606886</v>
       </c>
       <c r="Z2">
-        <v>4109938</v>
+        <v>2142291</v>
       </c>
       <c r="AA2">
-        <v>4725896</v>
+        <v>2523091</v>
+      </c>
+      <c r="AB2">
+        <v>3094237</v>
       </c>
       <c r="AC2">
-        <v>4912687</v>
+        <v>3294541</v>
+      </c>
+      <c r="AD2">
+        <v>4003343</v>
+      </c>
+      <c r="AE2">
+        <v>4613944</v>
       </c>
       <c r="AF2">
-        <v>3445261</v>
-      </c>
-      <c r="AI2">
-        <v>2303679</v>
-      </c>
-      <c r="AJ2">
-        <v>5414456</v>
+        <v>5211977</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -3740,112 +5320,97 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>3527</v>
+        <v>23493</v>
       </c>
       <c r="C3">
-        <v>4055</v>
+        <v>19590</v>
       </c>
       <c r="D3">
-        <v>6240</v>
+        <v>28685</v>
       </c>
       <c r="E3">
-        <v>15293</v>
+        <v>41720</v>
       </c>
       <c r="F3">
-        <v>19910</v>
+        <v>36431</v>
       </c>
       <c r="G3">
-        <v>11181</v>
+        <v>53553</v>
       </c>
       <c r="H3">
-        <v>25070</v>
+        <v>72136</v>
       </c>
       <c r="I3">
-        <v>67407</v>
+        <v>67658</v>
       </c>
       <c r="J3">
-        <v>39512</v>
+        <v>94882</v>
       </c>
       <c r="K3">
-        <v>158307</v>
+        <v>121669</v>
       </c>
       <c r="L3">
-        <v>201564</v>
+        <v>120786</v>
       </c>
       <c r="M3">
-        <v>209499</v>
+        <v>148237</v>
       </c>
       <c r="N3">
-        <v>437171</v>
+        <v>215007</v>
       </c>
       <c r="O3">
-        <v>554436</v>
+        <v>244070</v>
       </c>
       <c r="P3">
-        <v>593870</v>
+        <v>287073</v>
       </c>
       <c r="Q3">
-        <v>865729</v>
+        <v>389082</v>
       </c>
       <c r="R3">
-        <v>1002697</v>
+        <v>416480</v>
       </c>
       <c r="S3">
-        <v>1122515</v>
+        <v>506687</v>
       </c>
       <c r="T3">
-        <v>1644254</v>
+        <v>689866</v>
       </c>
       <c r="U3">
-        <v>1725602</v>
+        <v>696728</v>
       </c>
       <c r="V3">
-        <v>2079515</v>
+        <v>894401</v>
       </c>
       <c r="W3">
-        <v>2632221</v>
+        <v>1296926</v>
       </c>
       <c r="X3">
-        <v>2801667</v>
+        <v>1455874</v>
       </c>
       <c r="Y3">
-        <v>3153922</v>
+        <v>1638341</v>
       </c>
       <c r="Z3">
-        <v>3335810</v>
+        <v>2223519</v>
       </c>
       <c r="AA3">
-        <v>3898200</v>
+        <v>2613662</v>
       </c>
       <c r="AB3">
-        <v>4733204</v>
+        <v>3177067</v>
       </c>
       <c r="AC3">
-        <v>2728596</v>
+        <v>3373650</v>
       </c>
       <c r="AD3">
-        <v>4483664</v>
+        <v>4069542</v>
       </c>
       <c r="AE3">
-        <v>5683562</v>
+        <v>4650936</v>
       </c>
       <c r="AF3">
-        <v>1695418</v>
-      </c>
-      <c r="AG3">
-        <v>3947403</v>
-      </c>
-      <c r="AH3">
-        <v>5394508</v>
-      </c>
-      <c r="AI3">
-        <v>1241987</v>
-      </c>
-      <c r="AJ3">
-        <v>3136307</v>
-      </c>
-      <c r="AK3">
-        <v>3896105</v>
+        <v>4945204</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -3853,112 +5418,100 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3243</v>
+        <v>24565</v>
       </c>
       <c r="C4">
-        <v>4237</v>
+        <v>20099</v>
       </c>
       <c r="D4">
-        <v>7342</v>
+        <v>29136</v>
       </c>
       <c r="E4">
-        <v>15125</v>
+        <v>43947</v>
       </c>
       <c r="F4">
-        <v>21751</v>
+        <v>38291</v>
       </c>
       <c r="G4">
-        <v>12325</v>
+        <v>55413</v>
       </c>
       <c r="H4">
-        <v>25323</v>
+        <v>76112</v>
       </c>
       <c r="I4">
-        <v>69683</v>
+        <v>70344</v>
       </c>
       <c r="J4">
-        <v>41064</v>
+        <v>97628</v>
       </c>
       <c r="K4">
-        <v>171005</v>
+        <v>127821</v>
       </c>
       <c r="L4">
-        <v>217082</v>
+        <v>125836</v>
       </c>
       <c r="M4">
-        <v>213541</v>
+        <v>151379</v>
       </c>
       <c r="N4">
-        <v>453236</v>
+        <v>230090</v>
       </c>
       <c r="O4">
-        <v>568641</v>
+        <v>251058</v>
       </c>
       <c r="P4">
-        <v>593882</v>
+        <v>294626</v>
       </c>
       <c r="Q4">
-        <v>890840</v>
+        <v>413740</v>
       </c>
       <c r="R4">
-        <v>991630</v>
+        <v>425666</v>
       </c>
       <c r="S4">
-        <v>1120645</v>
+        <v>534924</v>
       </c>
       <c r="T4">
-        <v>1613056</v>
+        <v>726929</v>
       </c>
       <c r="U4">
-        <v>1698006</v>
+        <v>720845</v>
       </c>
       <c r="V4">
-        <v>2047197</v>
+        <v>927033</v>
       </c>
       <c r="W4">
-        <v>2459970</v>
+        <v>1329043</v>
       </c>
       <c r="X4">
-        <v>2619478</v>
+        <v>1523367</v>
       </c>
       <c r="Y4">
-        <v>2950650</v>
+        <v>1662709</v>
       </c>
       <c r="Z4">
-        <v>2649257</v>
+        <v>2289956</v>
       </c>
       <c r="AA4">
-        <v>3366763</v>
+        <v>2688439</v>
       </c>
       <c r="AB4">
-        <v>3912268</v>
+        <v>3236784</v>
       </c>
       <c r="AC4">
-        <v>1914127</v>
+        <v>3350878</v>
       </c>
       <c r="AD4">
-        <v>3479000</v>
+        <v>4039620</v>
       </c>
       <c r="AE4">
-        <v>4185469</v>
+        <v>4839132</v>
       </c>
       <c r="AF4">
-        <v>1317002</v>
-      </c>
-      <c r="AG4">
-        <v>3061712</v>
-      </c>
-      <c r="AH4">
-        <v>3767324</v>
+        <v>4658220</v>
       </c>
       <c r="AI4">
-        <v>1099337</v>
-      </c>
-      <c r="AJ4">
-        <v>2713647</v>
-      </c>
-      <c r="AK4">
-        <v>2526903</v>
+        <v>5425263</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -3966,112 +5519,103 @@
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>3256</v>
+        <v>24842</v>
       </c>
       <c r="C5">
-        <v>4096</v>
+        <v>20562</v>
       </c>
       <c r="D5">
-        <v>7471</v>
+        <v>30408</v>
       </c>
       <c r="E5">
-        <v>15414</v>
+        <v>45816</v>
       </c>
       <c r="F5">
-        <v>23174</v>
+        <v>39786</v>
       </c>
       <c r="G5">
-        <v>12953</v>
+        <v>55489</v>
       </c>
       <c r="H5">
-        <v>26484</v>
+        <v>77224</v>
       </c>
       <c r="I5">
-        <v>72027</v>
+        <v>72502</v>
       </c>
       <c r="J5">
-        <v>44094</v>
+        <v>99128</v>
       </c>
       <c r="K5">
-        <v>179057</v>
+        <v>128483</v>
       </c>
       <c r="L5">
-        <v>217350</v>
+        <v>125886</v>
       </c>
       <c r="M5">
-        <v>220420</v>
+        <v>156972</v>
       </c>
       <c r="N5">
-        <v>465770</v>
+        <v>233036</v>
       </c>
       <c r="O5">
-        <v>580487</v>
+        <v>254436</v>
       </c>
       <c r="P5">
-        <v>588353</v>
+        <v>295462</v>
       </c>
       <c r="Q5">
-        <v>895068</v>
+        <v>425602</v>
       </c>
       <c r="R5">
-        <v>1002390</v>
+        <v>438140</v>
       </c>
       <c r="S5">
-        <v>1098524</v>
+        <v>543068</v>
       </c>
       <c r="T5">
-        <v>1631542</v>
+        <v>739889</v>
       </c>
       <c r="U5">
-        <v>1675271</v>
+        <v>755594</v>
       </c>
       <c r="V5">
-        <v>1978482</v>
+        <v>944926</v>
       </c>
       <c r="W5">
-        <v>2256384</v>
+        <v>1339816</v>
       </c>
       <c r="X5">
-        <v>2440585</v>
+        <v>1536503</v>
       </c>
       <c r="Y5">
-        <v>2797716</v>
+        <v>1694595</v>
       </c>
       <c r="Z5">
-        <v>2228303</v>
+        <v>2255499</v>
       </c>
       <c r="AA5">
-        <v>2887378</v>
+        <v>2690073</v>
       </c>
       <c r="AB5">
-        <v>3458179</v>
+        <v>3259977</v>
       </c>
       <c r="AC5">
-        <v>1487193</v>
+        <v>3343562</v>
       </c>
       <c r="AD5">
-        <v>2920418</v>
+        <v>4110367</v>
       </c>
       <c r="AE5">
-        <v>3375404</v>
+        <v>4861889</v>
       </c>
       <c r="AF5">
-        <v>1170279</v>
-      </c>
-      <c r="AG5">
-        <v>2599252</v>
-      </c>
-      <c r="AH5">
-        <v>2955601</v>
+        <v>4548245</v>
       </c>
       <c r="AI5">
-        <v>1073355</v>
+        <v>4580190</v>
       </c>
       <c r="AJ5">
-        <v>2587723</v>
-      </c>
-      <c r="AK5">
-        <v>2263283</v>
+        <v>5660425</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -4079,112 +5623,106 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3285</v>
+        <v>23553</v>
       </c>
       <c r="C6">
-        <v>4335</v>
+        <v>19867</v>
       </c>
       <c r="D6">
-        <v>7609</v>
+        <v>28372</v>
       </c>
       <c r="E6">
-        <v>16494</v>
+        <v>44336</v>
       </c>
       <c r="F6">
-        <v>21996</v>
+        <v>37866</v>
       </c>
       <c r="G6">
-        <v>13374</v>
+        <v>54165</v>
       </c>
       <c r="H6">
-        <v>27600</v>
+        <v>74864</v>
       </c>
       <c r="I6">
-        <v>69072</v>
+        <v>71177</v>
       </c>
       <c r="J6">
-        <v>44238</v>
+        <v>95519</v>
       </c>
       <c r="K6">
-        <v>172320</v>
+        <v>125596</v>
       </c>
       <c r="L6">
-        <v>211078</v>
+        <v>132537</v>
       </c>
       <c r="M6">
-        <v>208647</v>
+        <v>156819</v>
       </c>
       <c r="N6">
-        <v>462490</v>
+        <v>223515</v>
       </c>
       <c r="O6">
-        <v>548761</v>
+        <v>247043</v>
       </c>
       <c r="P6">
-        <v>541081</v>
+        <v>298167</v>
       </c>
       <c r="Q6">
-        <v>872188</v>
+        <v>409180</v>
       </c>
       <c r="R6">
-        <v>953084</v>
+        <v>435237</v>
       </c>
       <c r="S6">
-        <v>998621</v>
+        <v>525258</v>
       </c>
       <c r="T6">
-        <v>1530888</v>
+        <v>723711</v>
       </c>
       <c r="U6">
-        <v>1553991</v>
+        <v>741702</v>
       </c>
       <c r="V6">
-        <v>1792240</v>
+        <v>926726</v>
       </c>
       <c r="W6">
-        <v>1974166</v>
+        <v>1294214</v>
       </c>
       <c r="X6">
-        <v>2200472</v>
+        <v>1523019</v>
       </c>
       <c r="Y6">
-        <v>2467064</v>
+        <v>1647515</v>
       </c>
       <c r="Z6">
-        <v>1839339</v>
+        <v>2151547</v>
       </c>
       <c r="AA6">
-        <v>2545954</v>
+        <v>2625476</v>
       </c>
       <c r="AB6">
-        <v>2831843</v>
+        <v>3130808</v>
       </c>
       <c r="AC6">
-        <v>1240575</v>
+        <v>3086405</v>
       </c>
       <c r="AD6">
-        <v>2441133</v>
+        <v>3950252</v>
       </c>
       <c r="AE6">
-        <v>2730945</v>
+        <v>4571359</v>
       </c>
       <c r="AF6">
-        <v>1061681</v>
+        <v>3869032</v>
       </c>
       <c r="AG6">
-        <v>2316657</v>
-      </c>
-      <c r="AH6">
-        <v>2358048</v>
+        <v>5184817</v>
       </c>
       <c r="AI6">
-        <v>1052616</v>
+        <v>3515904</v>
       </c>
       <c r="AJ6">
-        <v>2342928</v>
-      </c>
-      <c r="AK6">
-        <v>2041512</v>
+        <v>4526988</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -4192,112 +5730,109 @@
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>3030</v>
+        <v>24109</v>
       </c>
       <c r="C7">
-        <v>4722</v>
+        <v>19911</v>
       </c>
       <c r="D7">
-        <v>7660</v>
+        <v>29457</v>
       </c>
       <c r="E7">
-        <v>16171</v>
+        <v>45605</v>
       </c>
       <c r="F7">
-        <v>23243</v>
+        <v>39296</v>
       </c>
       <c r="G7">
-        <v>13374</v>
+        <v>54520</v>
       </c>
       <c r="H7">
-        <v>27096</v>
+        <v>76915</v>
       </c>
       <c r="I7">
-        <v>69137</v>
+        <v>72569</v>
       </c>
       <c r="J7">
-        <v>43912</v>
+        <v>97184</v>
       </c>
       <c r="K7">
-        <v>166951</v>
+        <v>126681</v>
       </c>
       <c r="L7">
-        <v>209091</v>
+        <v>136136</v>
       </c>
       <c r="M7">
-        <v>211318</v>
+        <v>152596</v>
       </c>
       <c r="N7">
-        <v>448873</v>
+        <v>231198</v>
       </c>
       <c r="O7">
-        <v>540791</v>
+        <v>251056</v>
       </c>
       <c r="P7">
-        <v>540743</v>
+        <v>295802</v>
       </c>
       <c r="Q7">
-        <v>822616</v>
+        <v>412690</v>
       </c>
       <c r="R7">
-        <v>916524</v>
+        <v>430419</v>
       </c>
       <c r="S7">
-        <v>988473</v>
+        <v>541128</v>
       </c>
       <c r="T7">
-        <v>1363665</v>
+        <v>731686</v>
       </c>
       <c r="U7">
-        <v>1490450</v>
+        <v>743882</v>
       </c>
       <c r="V7">
-        <v>1727909</v>
+        <v>927783</v>
       </c>
       <c r="W7">
-        <v>1711436</v>
+        <v>1291769</v>
       </c>
       <c r="X7">
-        <v>2010439</v>
+        <v>1522973</v>
       </c>
       <c r="Y7">
-        <v>2320338</v>
+        <v>1657520</v>
       </c>
       <c r="Z7">
-        <v>1532311</v>
+        <v>2162735</v>
       </c>
       <c r="AA7">
-        <v>2271556</v>
+        <v>2620025</v>
       </c>
       <c r="AB7">
-        <v>2548137</v>
+        <v>3125777</v>
       </c>
       <c r="AC7">
-        <v>1057655</v>
+        <v>3009676</v>
       </c>
       <c r="AD7">
-        <v>2153693</v>
+        <v>3764119</v>
       </c>
       <c r="AE7">
-        <v>2391549</v>
+        <v>4544508</v>
       </c>
       <c r="AF7">
-        <v>949929</v>
+        <v>3670298</v>
       </c>
       <c r="AG7">
-        <v>2118149</v>
-      </c>
-      <c r="AH7">
-        <v>2111536</v>
+        <v>4871125</v>
       </c>
       <c r="AI7">
-        <v>1006873</v>
+        <v>2945556</v>
       </c>
       <c r="AJ7">
-        <v>2267457</v>
+        <v>3802507</v>
       </c>
       <c r="AK7">
-        <v>1961383</v>
+        <v>5207669</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
@@ -4305,112 +5840,109 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2777</v>
+        <v>24121</v>
       </c>
       <c r="C8">
-        <v>4267</v>
+        <v>20096</v>
       </c>
       <c r="D8">
-        <v>7085</v>
+        <v>29730</v>
       </c>
       <c r="E8">
-        <v>15870</v>
+        <v>45600</v>
       </c>
       <c r="F8">
-        <v>22957</v>
+        <v>39662</v>
       </c>
       <c r="G8">
-        <v>14010</v>
+        <v>54219</v>
       </c>
       <c r="H8">
-        <v>27376</v>
+        <v>77926</v>
       </c>
       <c r="I8">
-        <v>68996</v>
+        <v>74008</v>
       </c>
       <c r="J8">
-        <v>44128</v>
+        <v>98388</v>
       </c>
       <c r="K8">
-        <v>171813</v>
+        <v>132934</v>
       </c>
       <c r="L8">
-        <v>217446</v>
+        <v>137741</v>
       </c>
       <c r="M8">
-        <v>209164</v>
+        <v>156806</v>
       </c>
       <c r="N8">
-        <v>446997</v>
+        <v>230886</v>
       </c>
       <c r="O8">
-        <v>529831</v>
+        <v>247564</v>
       </c>
       <c r="P8">
-        <v>525272</v>
+        <v>298029</v>
       </c>
       <c r="Q8">
-        <v>804715</v>
+        <v>423682</v>
       </c>
       <c r="R8">
-        <v>890938</v>
+        <v>426452</v>
       </c>
       <c r="S8">
-        <v>964500</v>
+        <v>528850</v>
       </c>
       <c r="T8">
-        <v>1313337</v>
+        <v>741947</v>
       </c>
       <c r="U8">
-        <v>1433173</v>
+        <v>750433</v>
       </c>
       <c r="V8">
-        <v>1661288</v>
+        <v>920077</v>
       </c>
       <c r="W8">
-        <v>1537255</v>
+        <v>1295785</v>
       </c>
       <c r="X8">
-        <v>1979672</v>
+        <v>1554917</v>
       </c>
       <c r="Y8">
-        <v>2179207</v>
+        <v>1659441</v>
       </c>
       <c r="Z8">
-        <v>1358223</v>
+        <v>2133011</v>
       </c>
       <c r="AA8">
-        <v>2129631</v>
+        <v>2584517</v>
       </c>
       <c r="AB8">
-        <v>2392691</v>
+        <v>3107131</v>
       </c>
       <c r="AC8">
-        <v>967172</v>
+        <v>2935375</v>
       </c>
       <c r="AD8">
-        <v>2038243</v>
+        <v>3714193</v>
       </c>
       <c r="AE8">
-        <v>2166658</v>
+        <v>4407491</v>
       </c>
       <c r="AF8">
-        <v>914496</v>
+        <v>3392607</v>
       </c>
       <c r="AG8">
-        <v>2044936</v>
-      </c>
-      <c r="AH8">
-        <v>2015569</v>
+        <v>4612350</v>
       </c>
       <c r="AI8">
-        <v>957111</v>
+        <v>2501024</v>
       </c>
       <c r="AJ8">
-        <v>2156109</v>
+        <v>3289177</v>
       </c>
       <c r="AK8">
-        <v>1915901</v>
+        <v>4597282</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
@@ -4418,112 +5950,112 @@
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>2888</v>
+        <v>23782</v>
       </c>
       <c r="C9">
-        <v>4264</v>
+        <v>20539</v>
       </c>
       <c r="D9">
-        <v>7437</v>
+        <v>29535</v>
       </c>
       <c r="E9">
-        <v>15924</v>
+        <v>46377</v>
       </c>
       <c r="F9">
-        <v>22801</v>
+        <v>39625</v>
       </c>
       <c r="G9">
-        <v>13936</v>
+        <v>55224</v>
       </c>
       <c r="H9">
-        <v>27670</v>
+        <v>78366</v>
       </c>
       <c r="I9">
-        <v>69733</v>
+        <v>73449</v>
       </c>
       <c r="J9">
-        <v>43887</v>
+        <v>97804</v>
       </c>
       <c r="K9">
-        <v>164111</v>
+        <v>138549</v>
       </c>
       <c r="L9">
-        <v>211603</v>
+        <v>134861</v>
       </c>
       <c r="M9">
-        <v>205142</v>
+        <v>151836</v>
       </c>
       <c r="N9">
-        <v>440984</v>
+        <v>233005</v>
       </c>
       <c r="O9">
-        <v>520186</v>
+        <v>249304</v>
       </c>
       <c r="P9">
-        <v>518279</v>
+        <v>302448</v>
       </c>
       <c r="Q9">
-        <v>784446</v>
+        <v>427013</v>
       </c>
       <c r="R9">
-        <v>877490</v>
+        <v>434119</v>
       </c>
       <c r="S9">
-        <v>937854</v>
+        <v>536333</v>
       </c>
       <c r="T9">
-        <v>1257472</v>
+        <v>734683</v>
       </c>
       <c r="U9">
-        <v>1397459</v>
+        <v>749626</v>
       </c>
       <c r="V9">
-        <v>1622780</v>
+        <v>917878</v>
       </c>
       <c r="W9">
-        <v>1388769</v>
+        <v>1304366</v>
       </c>
       <c r="X9">
-        <v>1815882</v>
+        <v>1502285</v>
       </c>
       <c r="Y9">
-        <v>2141783</v>
+        <v>1652235</v>
       </c>
       <c r="Z9">
-        <v>1231191</v>
+        <v>2071061</v>
       </c>
       <c r="AA9">
-        <v>1989773</v>
+        <v>2590397</v>
       </c>
       <c r="AB9">
-        <v>2215965</v>
+        <v>3077161</v>
       </c>
       <c r="AC9">
-        <v>897354</v>
+        <v>2881443</v>
       </c>
       <c r="AD9">
-        <v>1924526</v>
+        <v>3662459</v>
       </c>
       <c r="AE9">
-        <v>2027106</v>
+        <v>4345814</v>
       </c>
       <c r="AF9">
-        <v>874989</v>
+        <v>3152137</v>
       </c>
       <c r="AG9">
-        <v>1958943</v>
+        <v>4219366</v>
       </c>
       <c r="AH9">
-        <v>1886047</v>
+        <v>5648047</v>
       </c>
       <c r="AI9">
-        <v>901265</v>
+        <v>2118506</v>
       </c>
       <c r="AJ9">
-        <v>2094924</v>
+        <v>2752773</v>
       </c>
       <c r="AK9">
-        <v>1860881</v>
+        <v>3960852</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
@@ -4531,112 +6063,112 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>2866</v>
+        <v>23343</v>
       </c>
       <c r="C10">
-        <v>4083</v>
+        <v>20568</v>
       </c>
       <c r="D10">
-        <v>7353</v>
+        <v>30368</v>
       </c>
       <c r="E10">
-        <v>14699</v>
+        <v>46660</v>
       </c>
       <c r="F10">
-        <v>23072</v>
+        <v>40858</v>
       </c>
       <c r="G10">
-        <v>13701</v>
+        <v>55039</v>
       </c>
       <c r="H10">
-        <v>27475</v>
+        <v>80221</v>
       </c>
       <c r="I10">
-        <v>70766</v>
+        <v>75583</v>
       </c>
       <c r="J10">
-        <v>44654</v>
+        <v>97555</v>
       </c>
       <c r="K10">
-        <v>162173</v>
+        <v>128851</v>
       </c>
       <c r="L10">
-        <v>211775</v>
+        <v>129144</v>
       </c>
       <c r="M10">
-        <v>205723</v>
+        <v>148448</v>
       </c>
       <c r="N10">
-        <v>442194</v>
+        <v>239144</v>
       </c>
       <c r="O10">
-        <v>527534</v>
+        <v>248508</v>
       </c>
       <c r="P10">
-        <v>514345</v>
+        <v>292444</v>
       </c>
       <c r="Q10">
-        <v>791508</v>
+        <v>432156</v>
       </c>
       <c r="R10">
-        <v>873525</v>
+        <v>441959</v>
       </c>
       <c r="S10">
-        <v>902778</v>
+        <v>523321</v>
       </c>
       <c r="T10">
-        <v>1196514</v>
+        <v>748921</v>
       </c>
       <c r="U10">
-        <v>1354089</v>
+        <v>739887</v>
       </c>
       <c r="V10">
-        <v>1544364</v>
+        <v>903572</v>
       </c>
       <c r="W10">
-        <v>1279079</v>
+        <v>1296742</v>
       </c>
       <c r="X10">
-        <v>1721698</v>
+        <v>1516216</v>
       </c>
       <c r="Y10">
-        <v>1996474</v>
+        <v>1633649</v>
       </c>
       <c r="Z10">
-        <v>1106883</v>
+        <v>2043848</v>
       </c>
       <c r="AA10">
-        <v>1864345</v>
+        <v>2507499</v>
       </c>
       <c r="AB10">
-        <v>2124049</v>
+        <v>3086635</v>
       </c>
       <c r="AC10">
-        <v>854585</v>
+        <v>2789781</v>
       </c>
       <c r="AD10">
-        <v>1797665</v>
+        <v>3476865</v>
       </c>
       <c r="AE10">
-        <v>1899609</v>
+        <v>4240385</v>
       </c>
       <c r="AF10">
-        <v>826994</v>
+        <v>2827431</v>
       </c>
       <c r="AG10">
-        <v>1862766</v>
+        <v>3902699</v>
       </c>
       <c r="AH10">
-        <v>1823352</v>
+        <v>5401054</v>
       </c>
       <c r="AI10">
-        <v>871925</v>
+        <v>1768795</v>
       </c>
       <c r="AJ10">
-        <v>2021973</v>
+        <v>2334331</v>
       </c>
       <c r="AK10">
-        <v>1773832</v>
+        <v>3397923</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
@@ -4644,112 +6176,112 @@
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>2876</v>
+        <v>24968</v>
       </c>
       <c r="C11">
-        <v>3959</v>
+        <v>19719</v>
       </c>
       <c r="D11">
-        <v>7486</v>
+        <v>30204</v>
       </c>
       <c r="E11">
-        <v>14949</v>
+        <v>47510</v>
       </c>
       <c r="F11">
-        <v>24259</v>
+        <v>39656</v>
       </c>
       <c r="G11">
-        <v>13966</v>
+        <v>53934</v>
       </c>
       <c r="H11">
-        <v>27318</v>
+        <v>79100</v>
       </c>
       <c r="I11">
-        <v>71343</v>
+        <v>73732</v>
       </c>
       <c r="J11">
-        <v>43890</v>
+        <v>96162</v>
       </c>
       <c r="K11">
-        <v>164396</v>
+        <v>133473</v>
       </c>
       <c r="L11">
-        <v>207749</v>
+        <v>132389</v>
       </c>
       <c r="M11">
-        <v>198305</v>
+        <v>158241</v>
       </c>
       <c r="N11">
-        <v>430111</v>
+        <v>234311</v>
       </c>
       <c r="O11">
-        <v>514477</v>
+        <v>256845</v>
       </c>
       <c r="P11">
-        <v>502104</v>
+        <v>298627</v>
       </c>
       <c r="Q11">
-        <v>756780</v>
+        <v>417864</v>
       </c>
       <c r="R11">
-        <v>846769</v>
+        <v>437213</v>
       </c>
       <c r="S11">
-        <v>902171</v>
+        <v>526774</v>
       </c>
       <c r="T11">
-        <v>1156536</v>
+        <v>730228</v>
       </c>
       <c r="U11">
-        <v>1288583</v>
+        <v>747859</v>
       </c>
       <c r="V11">
-        <v>1504026</v>
+        <v>898915</v>
       </c>
       <c r="W11">
-        <v>1184071</v>
+        <v>1272405</v>
       </c>
       <c r="X11">
-        <v>1652821</v>
+        <v>1491254</v>
       </c>
       <c r="Y11">
-        <v>1914243</v>
+        <v>1635377</v>
       </c>
       <c r="Z11">
-        <v>1025015</v>
+        <v>2008841</v>
       </c>
       <c r="AA11">
-        <v>1779814</v>
+        <v>2523737</v>
       </c>
       <c r="AB11">
-        <v>2001683</v>
+        <v>3015881</v>
       </c>
       <c r="AC11">
-        <v>811336</v>
+        <v>2630102</v>
       </c>
       <c r="AD11">
-        <v>1733053</v>
+        <v>3459695</v>
       </c>
       <c r="AE11">
-        <v>1822799</v>
+        <v>4150262</v>
       </c>
       <c r="AF11">
-        <v>782690</v>
+        <v>2620105</v>
       </c>
       <c r="AG11">
-        <v>1775232</v>
+        <v>3608844</v>
       </c>
       <c r="AH11">
-        <v>1735919</v>
+        <v>5120998</v>
       </c>
       <c r="AI11">
-        <v>820551</v>
+        <v>1522764</v>
       </c>
       <c r="AJ11">
-        <v>1928950</v>
+        <v>1979680</v>
       </c>
       <c r="AK11">
-        <v>1688989</v>
+        <v>2935161</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
@@ -4757,112 +6289,112 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>2787</v>
+        <v>24216</v>
       </c>
       <c r="C12">
-        <v>3912</v>
+        <v>20737</v>
       </c>
       <c r="D12">
-        <v>7176</v>
+        <v>29287</v>
       </c>
       <c r="E12">
-        <v>14818</v>
+        <v>46352</v>
       </c>
       <c r="F12">
-        <v>23806</v>
+        <v>39459</v>
       </c>
       <c r="G12">
-        <v>13926</v>
+        <v>54987</v>
       </c>
       <c r="H12">
-        <v>26893</v>
+        <v>79358</v>
       </c>
       <c r="I12">
-        <v>70715</v>
+        <v>73486</v>
       </c>
       <c r="J12">
-        <v>42429</v>
+        <v>96552</v>
       </c>
       <c r="K12">
-        <v>159099</v>
+        <v>133565</v>
       </c>
       <c r="L12">
-        <v>202911</v>
+        <v>134218</v>
       </c>
       <c r="M12">
-        <v>202215</v>
+        <v>148573</v>
       </c>
       <c r="N12">
-        <v>426594</v>
+        <v>233937</v>
       </c>
       <c r="O12">
-        <v>505238</v>
+        <v>254577</v>
       </c>
       <c r="P12">
-        <v>487171</v>
+        <v>288573</v>
       </c>
       <c r="Q12">
-        <v>731644</v>
+        <v>427702</v>
       </c>
       <c r="R12">
-        <v>830990</v>
+        <v>442181</v>
       </c>
       <c r="S12">
-        <v>871190</v>
+        <v>514886</v>
       </c>
       <c r="T12">
-        <v>1087241</v>
+        <v>731455</v>
       </c>
       <c r="U12">
-        <v>1274128</v>
+        <v>749675</v>
       </c>
       <c r="V12">
-        <v>1447527</v>
+        <v>911457</v>
       </c>
       <c r="W12">
-        <v>1086095</v>
+        <v>1258394</v>
       </c>
       <c r="X12">
-        <v>1624946</v>
+        <v>1482697</v>
       </c>
       <c r="Y12">
-        <v>1846432</v>
+        <v>1630976</v>
       </c>
       <c r="Z12">
-        <v>960989</v>
+        <v>1972448</v>
       </c>
       <c r="AA12">
-        <v>1723129</v>
+        <v>2441934</v>
       </c>
       <c r="AB12">
-        <v>1897662</v>
+        <v>2976945</v>
       </c>
       <c r="AC12">
-        <v>769229</v>
+        <v>2528609</v>
       </c>
       <c r="AD12">
-        <v>1633061</v>
+        <v>3292026</v>
       </c>
       <c r="AE12">
-        <v>1684590</v>
+        <v>3995487</v>
       </c>
       <c r="AF12">
-        <v>750763</v>
+        <v>2365959</v>
       </c>
       <c r="AG12">
-        <v>1698908</v>
+        <v>3313069</v>
       </c>
       <c r="AH12">
-        <v>1633197</v>
+        <v>4646675</v>
       </c>
       <c r="AI12">
-        <v>784672</v>
+        <v>1274912</v>
       </c>
       <c r="AJ12">
-        <v>1845932</v>
+        <v>1681457</v>
       </c>
       <c r="AK12">
-        <v>1613273</v>
+        <v>2499798</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
@@ -4870,112 +6402,112 @@
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>2656</v>
+        <v>23748</v>
       </c>
       <c r="C13">
-        <v>3683</v>
+        <v>19960</v>
       </c>
       <c r="D13">
-        <v>6921</v>
+        <v>29417</v>
       </c>
       <c r="E13">
-        <v>14642</v>
+        <v>46324</v>
       </c>
       <c r="F13">
-        <v>23208</v>
+        <v>39073</v>
       </c>
       <c r="G13">
-        <v>13452</v>
+        <v>54390</v>
       </c>
       <c r="H13">
-        <v>27264</v>
+        <v>80448</v>
       </c>
       <c r="I13">
-        <v>69004</v>
+        <v>73277</v>
       </c>
       <c r="J13">
-        <v>42853</v>
+        <v>95918</v>
       </c>
       <c r="K13">
-        <v>155138</v>
+        <v>130795</v>
       </c>
       <c r="L13">
-        <v>196931</v>
+        <v>131777</v>
       </c>
       <c r="M13">
-        <v>192427</v>
+        <v>149096</v>
       </c>
       <c r="N13">
-        <v>420830</v>
+        <v>233587</v>
       </c>
       <c r="O13">
-        <v>490281</v>
+        <v>242400</v>
       </c>
       <c r="P13">
-        <v>480214</v>
+        <v>296942</v>
       </c>
       <c r="Q13">
-        <v>720517</v>
+        <v>410907</v>
       </c>
       <c r="R13">
-        <v>816184</v>
+        <v>430955</v>
       </c>
       <c r="S13">
-        <v>852464</v>
+        <v>518856</v>
       </c>
       <c r="T13">
-        <v>1044251</v>
+        <v>729604</v>
       </c>
       <c r="U13">
-        <v>1234629</v>
+        <v>732822</v>
       </c>
       <c r="V13">
-        <v>1413178</v>
+        <v>876811</v>
       </c>
       <c r="W13">
-        <v>995456</v>
+        <v>1236029</v>
       </c>
       <c r="X13">
-        <v>1559546</v>
+        <v>1486564</v>
       </c>
       <c r="Y13">
-        <v>1759504</v>
+        <v>1613334</v>
       </c>
       <c r="Z13">
-        <v>891377</v>
+        <v>1880381</v>
       </c>
       <c r="AA13">
-        <v>1640466</v>
+        <v>2403058</v>
       </c>
       <c r="AB13">
-        <v>1823159</v>
+        <v>2965155</v>
       </c>
       <c r="AC13">
-        <v>733634</v>
+        <v>2401412</v>
       </c>
       <c r="AD13">
-        <v>1597243</v>
+        <v>3161222</v>
       </c>
       <c r="AE13">
-        <v>1595115</v>
+        <v>3928749</v>
       </c>
       <c r="AF13">
-        <v>715683</v>
+        <v>2156760</v>
       </c>
       <c r="AG13">
-        <v>1612449</v>
+        <v>3015230</v>
       </c>
       <c r="AH13">
-        <v>1592144</v>
+        <v>4363405</v>
       </c>
       <c r="AI13">
-        <v>739869</v>
+        <v>1119048</v>
       </c>
       <c r="AJ13">
-        <v>1778505</v>
+        <v>1459951</v>
       </c>
       <c r="AK13">
-        <v>1534299</v>
+        <v>2169368</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
@@ -4983,112 +6515,112 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>2803</v>
+        <v>23633</v>
       </c>
       <c r="C14">
-        <v>3720</v>
+        <v>20145</v>
       </c>
       <c r="D14">
-        <v>7080</v>
+        <v>29288</v>
       </c>
       <c r="E14">
-        <v>14140</v>
+        <v>46940</v>
       </c>
       <c r="F14">
-        <v>23166</v>
+        <v>38580</v>
       </c>
       <c r="G14">
-        <v>14193</v>
+        <v>54299</v>
       </c>
       <c r="H14">
-        <v>27051</v>
+        <v>79398</v>
       </c>
       <c r="I14">
-        <v>69464</v>
+        <v>71340</v>
       </c>
       <c r="J14">
-        <v>42021</v>
+        <v>95578</v>
       </c>
       <c r="K14">
-        <v>156057</v>
+        <v>136056</v>
       </c>
       <c r="L14">
-        <v>200367</v>
+        <v>135485</v>
       </c>
       <c r="M14">
-        <v>187639</v>
+        <v>144174</v>
       </c>
       <c r="N14">
-        <v>413027</v>
+        <v>229432</v>
       </c>
       <c r="O14">
-        <v>479847</v>
+        <v>249064</v>
       </c>
       <c r="P14">
-        <v>472456</v>
+        <v>288324</v>
       </c>
       <c r="Q14">
-        <v>695479</v>
+        <v>416928</v>
       </c>
       <c r="R14">
-        <v>798099</v>
+        <v>434425</v>
       </c>
       <c r="S14">
-        <v>818273</v>
+        <v>507461</v>
       </c>
       <c r="T14">
-        <v>986556</v>
+        <v>726470</v>
       </c>
       <c r="U14">
-        <v>1202288</v>
+        <v>723631</v>
       </c>
       <c r="V14">
-        <v>1376913</v>
+        <v>881737</v>
       </c>
       <c r="W14">
-        <v>951130</v>
+        <v>1190603</v>
       </c>
       <c r="X14">
-        <v>1499230</v>
+        <v>1454724</v>
       </c>
       <c r="Y14">
-        <v>1726547</v>
+        <v>1578302</v>
       </c>
       <c r="Z14">
-        <v>851731</v>
+        <v>1861968</v>
       </c>
       <c r="AA14">
-        <v>1574360</v>
+        <v>2344257</v>
       </c>
       <c r="AB14">
-        <v>1734329</v>
+        <v>2838500</v>
       </c>
       <c r="AC14">
-        <v>719480</v>
+        <v>2259408</v>
       </c>
       <c r="AD14">
-        <v>1508267</v>
+        <v>3010930</v>
       </c>
       <c r="AE14">
-        <v>1534861</v>
+        <v>3786629</v>
       </c>
       <c r="AF14">
-        <v>691322</v>
+        <v>1938336</v>
       </c>
       <c r="AG14">
-        <v>1554917</v>
+        <v>2730390</v>
       </c>
       <c r="AH14">
-        <v>1505752</v>
+        <v>3999463</v>
       </c>
       <c r="AI14">
-        <v>710636</v>
+        <v>967402</v>
       </c>
       <c r="AJ14">
-        <v>1677203</v>
+        <v>1245873</v>
       </c>
       <c r="AK14">
-        <v>1460207</v>
+        <v>1865959</v>
       </c>
     </row>
   </sheetData>
@@ -5096,12 +6628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB747E1-E119-4645-9E9D-5E66F2A3ABCF}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814E4E2-5899-4D67-BC60-3C889373B6F7}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5221,106 +6753,109 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14289</v>
+        <v>12782</v>
       </c>
       <c r="C2">
-        <v>9253</v>
+        <v>13869</v>
       </c>
       <c r="D2">
-        <v>17290</v>
+        <v>14742</v>
       </c>
       <c r="E2">
-        <v>26772</v>
+        <v>24056</v>
       </c>
       <c r="F2">
-        <v>16259</v>
+        <v>29628</v>
       </c>
       <c r="G2">
-        <v>30846</v>
+        <v>28484</v>
       </c>
       <c r="H2">
-        <v>42947</v>
+        <v>40478</v>
       </c>
       <c r="I2">
-        <v>38814</v>
+        <v>52654</v>
       </c>
       <c r="J2">
-        <v>51866</v>
+        <v>49390</v>
       </c>
       <c r="K2">
-        <v>55930</v>
+        <v>76113</v>
       </c>
       <c r="L2">
-        <v>46070</v>
+        <v>94521</v>
       </c>
       <c r="M2">
-        <v>56055</v>
+        <v>89591</v>
       </c>
       <c r="N2">
-        <v>89088</v>
+        <v>142669</v>
       </c>
       <c r="O2">
-        <v>70766</v>
+        <v>177969</v>
       </c>
       <c r="P2">
-        <v>86541</v>
+        <v>154687</v>
       </c>
       <c r="Q2">
-        <v>138011</v>
+        <v>238037</v>
       </c>
       <c r="R2">
-        <v>115128</v>
+        <v>315779</v>
       </c>
       <c r="S2">
-        <v>156446</v>
+        <v>280605</v>
       </c>
       <c r="T2">
-        <v>240221</v>
+        <v>449144</v>
       </c>
       <c r="U2">
-        <v>196710</v>
+        <v>509785</v>
       </c>
       <c r="V2">
-        <v>239865</v>
+        <v>486127</v>
       </c>
       <c r="W2">
-        <v>354211</v>
+        <v>926729</v>
       </c>
       <c r="X2">
-        <v>298013</v>
+        <v>852134</v>
       </c>
       <c r="Y2">
-        <v>420580</v>
+        <v>880448</v>
       </c>
       <c r="Z2">
-        <v>766118</v>
+        <v>1582137</v>
       </c>
       <c r="AA2">
-        <v>674082</v>
+        <v>1422679</v>
       </c>
       <c r="AB2">
-        <v>818597</v>
+        <v>1609176</v>
       </c>
       <c r="AC2">
-        <v>1019695</v>
+        <v>2262470</v>
       </c>
       <c r="AD2">
-        <v>1395804</v>
+        <v>2865804</v>
       </c>
       <c r="AE2">
-        <v>2016291</v>
+        <v>3102513</v>
       </c>
       <c r="AF2">
-        <v>3025577</v>
+        <v>3039090</v>
       </c>
       <c r="AG2">
-        <v>3387933</v>
+        <v>4340268</v>
       </c>
       <c r="AH2">
-        <v>2594396</v>
-      </c>
-      <c r="AI2">
-        <v>5001477</v>
+        <v>4689618</v>
+      </c>
+      <c r="AJ2">
+        <v>5725862</v>
+      </c>
+      <c r="AK2">
+        <v>6000000</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -5328,112 +6863,109 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>14381</v>
+        <v>13391</v>
       </c>
       <c r="C3">
-        <v>9409</v>
+        <v>13394</v>
       </c>
       <c r="D3">
-        <v>18111</v>
+        <v>14757</v>
       </c>
       <c r="E3">
-        <v>28497</v>
+        <v>24661</v>
       </c>
       <c r="F3">
-        <v>16743</v>
+        <v>29240</v>
       </c>
       <c r="G3">
-        <v>33239</v>
+        <v>27900</v>
       </c>
       <c r="H3">
-        <v>46351</v>
+        <v>42878</v>
       </c>
       <c r="I3">
-        <v>42144</v>
+        <v>52508</v>
       </c>
       <c r="J3">
-        <v>54477</v>
+        <v>48570</v>
       </c>
       <c r="K3">
-        <v>58740</v>
+        <v>78652</v>
       </c>
       <c r="L3">
-        <v>50402</v>
+        <v>96105</v>
       </c>
       <c r="M3">
-        <v>58788</v>
+        <v>90500</v>
       </c>
       <c r="N3">
-        <v>95969</v>
+        <v>149939</v>
       </c>
       <c r="O3">
-        <v>74578</v>
+        <v>183274</v>
       </c>
       <c r="P3">
-        <v>91979</v>
+        <v>152807</v>
       </c>
       <c r="Q3">
-        <v>148932</v>
+        <v>241984</v>
       </c>
       <c r="R3">
-        <v>121973</v>
+        <v>308139</v>
       </c>
       <c r="S3">
-        <v>171028</v>
+        <v>278309</v>
       </c>
       <c r="T3">
-        <v>260399</v>
+        <v>443057</v>
       </c>
       <c r="U3">
-        <v>205255</v>
+        <v>511636</v>
       </c>
       <c r="V3">
-        <v>253910</v>
+        <v>480412</v>
       </c>
       <c r="W3">
-        <v>377875</v>
+        <v>904569</v>
       </c>
       <c r="X3">
-        <v>322296</v>
+        <v>866681</v>
       </c>
       <c r="Y3">
-        <v>454094</v>
+        <v>873047</v>
       </c>
       <c r="Z3">
-        <v>854205</v>
+        <v>1514113</v>
       </c>
       <c r="AA3">
-        <v>712799</v>
+        <v>1401418</v>
       </c>
       <c r="AB3">
-        <v>886841</v>
+        <v>1556900</v>
       </c>
       <c r="AC3">
-        <v>1083654</v>
+        <v>2039163</v>
       </c>
       <c r="AD3">
-        <v>1524438</v>
+        <v>2678108</v>
       </c>
       <c r="AE3">
-        <v>2179572</v>
+        <v>2855139</v>
       </c>
       <c r="AF3">
-        <v>3113486</v>
+        <v>2134300</v>
       </c>
       <c r="AG3">
-        <v>3494322</v>
+        <v>3632196</v>
       </c>
       <c r="AH3">
-        <v>2725565</v>
-      </c>
-      <c r="AI3">
-        <v>4792357</v>
+        <v>4001629</v>
       </c>
       <c r="AJ3">
-        <v>5732670</v>
+        <v>3842593</v>
       </c>
       <c r="AK3">
-        <v>5695845</v>
+        <v>4428986</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -5441,112 +6973,109 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>15317</v>
+        <v>13079</v>
       </c>
       <c r="C4">
-        <v>9846</v>
+        <v>12630</v>
       </c>
       <c r="D4">
-        <v>18572</v>
+        <v>14435</v>
       </c>
       <c r="E4">
-        <v>29844</v>
+        <v>25552</v>
       </c>
       <c r="F4">
-        <v>17674</v>
+        <v>29440</v>
       </c>
       <c r="G4">
-        <v>34831</v>
+        <v>28364</v>
       </c>
       <c r="H4">
-        <v>48074</v>
+        <v>44965</v>
       </c>
       <c r="I4">
-        <v>44079</v>
+        <v>53369</v>
       </c>
       <c r="J4">
-        <v>56959</v>
+        <v>49285</v>
       </c>
       <c r="K4">
-        <v>63723</v>
+        <v>80450</v>
       </c>
       <c r="L4">
-        <v>54199</v>
+        <v>97881</v>
       </c>
       <c r="M4">
-        <v>61642</v>
+        <v>90304</v>
       </c>
       <c r="N4">
-        <v>101878</v>
+        <v>151942</v>
       </c>
       <c r="O4">
-        <v>79854</v>
+        <v>180323</v>
       </c>
       <c r="P4">
-        <v>97192</v>
+        <v>151707</v>
       </c>
       <c r="Q4">
-        <v>159577</v>
+        <v>250779</v>
       </c>
       <c r="R4">
-        <v>131686</v>
+        <v>316887</v>
       </c>
       <c r="S4">
-        <v>179859</v>
+        <v>273281</v>
       </c>
       <c r="T4">
-        <v>276504</v>
+        <v>454645</v>
       </c>
       <c r="U4">
-        <v>222470</v>
+        <v>508902</v>
       </c>
       <c r="V4">
-        <v>264859</v>
+        <v>482643</v>
       </c>
       <c r="W4">
-        <v>414239</v>
+        <v>888646</v>
       </c>
       <c r="X4">
-        <v>347996</v>
+        <v>845648</v>
       </c>
       <c r="Y4">
-        <v>482965</v>
+        <v>873008</v>
       </c>
       <c r="Z4">
-        <v>888291</v>
+        <v>1444983</v>
       </c>
       <c r="AA4">
-        <v>765953</v>
+        <v>1374599</v>
       </c>
       <c r="AB4">
-        <v>928835</v>
+        <v>1499931</v>
       </c>
       <c r="AC4">
-        <v>1147126</v>
+        <v>1848391</v>
       </c>
       <c r="AD4">
-        <v>1569213</v>
+        <v>2456359</v>
       </c>
       <c r="AE4">
-        <v>2266791</v>
+        <v>2681480</v>
       </c>
       <c r="AF4">
-        <v>3175282</v>
+        <v>1768071</v>
       </c>
       <c r="AG4">
-        <v>3537630</v>
+        <v>3076225</v>
       </c>
       <c r="AH4">
-        <v>2778712</v>
-      </c>
-      <c r="AI4">
-        <v>4616111</v>
+        <v>3500463</v>
       </c>
       <c r="AJ4">
-        <v>5443997</v>
+        <v>2995378</v>
       </c>
       <c r="AK4">
-        <v>5300862</v>
+        <v>3538177</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -5554,112 +7083,109 @@
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>15445</v>
+        <v>13029</v>
       </c>
       <c r="C5">
-        <v>10299</v>
+        <v>12854</v>
       </c>
       <c r="D5">
-        <v>19003</v>
+        <v>14832</v>
       </c>
       <c r="E5">
-        <v>30946</v>
+        <v>25154</v>
       </c>
       <c r="F5">
-        <v>19171</v>
+        <v>29607</v>
       </c>
       <c r="G5">
-        <v>35122</v>
+        <v>27921</v>
       </c>
       <c r="H5">
-        <v>49209</v>
+        <v>44787</v>
       </c>
       <c r="I5">
-        <v>45660</v>
+        <v>53707</v>
       </c>
       <c r="J5">
-        <v>59147</v>
+        <v>48973</v>
       </c>
       <c r="K5">
-        <v>63562</v>
+        <v>81617</v>
       </c>
       <c r="L5">
-        <v>55196</v>
+        <v>97089</v>
       </c>
       <c r="M5">
-        <v>62647</v>
+        <v>88565</v>
       </c>
       <c r="N5">
-        <v>105145</v>
+        <v>144343</v>
       </c>
       <c r="O5">
-        <v>84305</v>
+        <v>184360</v>
       </c>
       <c r="P5">
-        <v>99575</v>
+        <v>143916</v>
       </c>
       <c r="Q5">
-        <v>162472</v>
+        <v>246293</v>
       </c>
       <c r="R5">
-        <v>140484</v>
+        <v>310807</v>
       </c>
       <c r="S5">
-        <v>172362</v>
+        <v>270998</v>
       </c>
       <c r="T5">
-        <v>284312</v>
+        <v>447955</v>
       </c>
       <c r="U5">
-        <v>232722</v>
+        <v>509046</v>
       </c>
       <c r="V5">
-        <v>280018</v>
+        <v>474490</v>
       </c>
       <c r="W5">
-        <v>423347</v>
+        <v>860480</v>
       </c>
       <c r="X5">
-        <v>365618</v>
+        <v>841153</v>
       </c>
       <c r="Y5">
-        <v>488237</v>
+        <v>843797</v>
       </c>
       <c r="Z5">
-        <v>934284</v>
+        <v>1355178</v>
       </c>
       <c r="AA5">
-        <v>806130</v>
+        <v>1315715</v>
       </c>
       <c r="AB5">
-        <v>943675</v>
+        <v>1383930</v>
       </c>
       <c r="AC5">
-        <v>1181461</v>
+        <v>1641609</v>
       </c>
       <c r="AD5">
-        <v>1618881</v>
+        <v>2260792</v>
       </c>
       <c r="AE5">
-        <v>2257356</v>
+        <v>2440788</v>
       </c>
       <c r="AF5">
-        <v>3201911</v>
+        <v>1560766</v>
       </c>
       <c r="AG5">
-        <v>3609836</v>
+        <v>2722375</v>
       </c>
       <c r="AH5">
-        <v>2776427</v>
-      </c>
-      <c r="AI5">
-        <v>4279972</v>
+        <v>3020229</v>
       </c>
       <c r="AJ5">
-        <v>5087862</v>
+        <v>2552826</v>
       </c>
       <c r="AK5">
-        <v>4844917</v>
+        <v>2970368</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -5667,112 +7193,109 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>15455</v>
+        <v>12945</v>
       </c>
       <c r="C6">
-        <v>10369</v>
+        <v>13048</v>
       </c>
       <c r="D6">
-        <v>17958</v>
+        <v>13169</v>
       </c>
       <c r="E6">
-        <v>30261</v>
+        <v>24997</v>
       </c>
       <c r="F6">
-        <v>19118</v>
+        <v>28792</v>
       </c>
       <c r="G6">
-        <v>33981</v>
+        <v>26675</v>
       </c>
       <c r="H6">
-        <v>48266</v>
+        <v>42267</v>
       </c>
       <c r="I6">
-        <v>44966</v>
+        <v>50826</v>
       </c>
       <c r="J6">
-        <v>55680</v>
+        <v>46115</v>
       </c>
       <c r="K6">
-        <v>63285</v>
+        <v>78288</v>
       </c>
       <c r="L6">
-        <v>55995</v>
+        <v>94891</v>
       </c>
       <c r="M6">
-        <v>59274</v>
+        <v>83019</v>
       </c>
       <c r="N6">
-        <v>103684</v>
+        <v>142671</v>
       </c>
       <c r="O6">
-        <v>83305</v>
+        <v>179490</v>
       </c>
       <c r="P6">
-        <v>95787</v>
+        <v>141567</v>
       </c>
       <c r="Q6">
-        <v>157526</v>
+        <v>237249</v>
       </c>
       <c r="R6">
-        <v>137315</v>
+        <v>305967</v>
       </c>
       <c r="S6">
-        <v>165164</v>
+        <v>260792</v>
       </c>
       <c r="T6">
-        <v>284891</v>
+        <v>426278</v>
       </c>
       <c r="U6">
-        <v>223728</v>
+        <v>494831</v>
       </c>
       <c r="V6">
-        <v>263851</v>
+        <v>428874</v>
       </c>
       <c r="W6">
-        <v>420005</v>
+        <v>812991</v>
       </c>
       <c r="X6">
-        <v>364716</v>
+        <v>810523</v>
       </c>
       <c r="Y6">
-        <v>464004</v>
+        <v>771484</v>
       </c>
       <c r="Z6">
-        <v>910618</v>
+        <v>1223688</v>
       </c>
       <c r="AA6">
-        <v>788967</v>
+        <v>1223245</v>
       </c>
       <c r="AB6">
-        <v>891104</v>
+        <v>1292534</v>
       </c>
       <c r="AC6">
-        <v>1180666</v>
+        <v>1458790</v>
       </c>
       <c r="AD6">
-        <v>1615739</v>
+        <v>2022079</v>
       </c>
       <c r="AE6">
-        <v>2131746</v>
+        <v>2150821</v>
       </c>
       <c r="AF6">
-        <v>3040304</v>
+        <v>1334057</v>
       </c>
       <c r="AG6">
-        <v>3427765</v>
+        <v>2390474</v>
       </c>
       <c r="AH6">
-        <v>2635554</v>
-      </c>
-      <c r="AI6">
-        <v>3889749</v>
+        <v>2600807</v>
       </c>
       <c r="AJ6">
-        <v>4554077</v>
+        <v>2124497</v>
       </c>
       <c r="AK6">
-        <v>4271402</v>
+        <v>2532850</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -5780,112 +7303,109 @@
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>15230</v>
+        <v>12855</v>
       </c>
       <c r="C7">
-        <v>10084</v>
+        <v>12343</v>
       </c>
       <c r="D7">
-        <v>18638</v>
+        <v>13947</v>
       </c>
       <c r="E7">
-        <v>29417</v>
+        <v>24111</v>
       </c>
       <c r="F7">
-        <v>18749</v>
+        <v>27862</v>
       </c>
       <c r="G7">
-        <v>35365</v>
+        <v>26400</v>
       </c>
       <c r="H7">
-        <v>48678</v>
+        <v>41680</v>
       </c>
       <c r="I7">
-        <v>45274</v>
+        <v>51550</v>
       </c>
       <c r="J7">
-        <v>55805</v>
+        <v>45506</v>
       </c>
       <c r="K7">
-        <v>62979</v>
+        <v>77645</v>
       </c>
       <c r="L7">
-        <v>55226</v>
+        <v>94186</v>
       </c>
       <c r="M7">
-        <v>61694</v>
+        <v>82820</v>
       </c>
       <c r="N7">
-        <v>102682</v>
+        <v>143322</v>
       </c>
       <c r="O7">
-        <v>83854</v>
+        <v>176605</v>
       </c>
       <c r="P7">
-        <v>96566</v>
+        <v>144147</v>
       </c>
       <c r="Q7">
-        <v>163478</v>
+        <v>236150</v>
       </c>
       <c r="R7">
-        <v>138789</v>
+        <v>300000</v>
       </c>
       <c r="S7">
-        <v>172277</v>
+        <v>255216</v>
       </c>
       <c r="T7">
-        <v>269784</v>
+        <v>407309</v>
       </c>
       <c r="U7">
-        <v>225700</v>
+        <v>475089</v>
       </c>
       <c r="V7">
-        <v>269125</v>
+        <v>441003</v>
       </c>
       <c r="W7">
-        <v>418747</v>
+        <v>775093</v>
       </c>
       <c r="X7">
-        <v>371500</v>
+        <v>775688</v>
       </c>
       <c r="Y7">
-        <v>480883</v>
+        <v>762503</v>
       </c>
       <c r="Z7">
-        <v>881235</v>
+        <v>1132964</v>
       </c>
       <c r="AA7">
-        <v>798724</v>
+        <v>1171107</v>
       </c>
       <c r="AB7">
-        <v>916287</v>
+        <v>1272014</v>
       </c>
       <c r="AC7">
-        <v>1145022</v>
+        <v>1290924</v>
       </c>
       <c r="AD7">
-        <v>1579789</v>
+        <v>1909644</v>
       </c>
       <c r="AE7">
-        <v>2142850</v>
+        <v>2043563</v>
       </c>
       <c r="AF7">
-        <v>2869001</v>
+        <v>1184131</v>
       </c>
       <c r="AG7">
-        <v>3309125</v>
+        <v>2170118</v>
       </c>
       <c r="AH7">
-        <v>2624405</v>
-      </c>
-      <c r="AI7">
-        <v>3415109</v>
+        <v>2418388</v>
       </c>
       <c r="AJ7">
-        <v>4252359</v>
+        <v>1913144</v>
       </c>
       <c r="AK7">
-        <v>4023148</v>
+        <v>2289794</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
@@ -5893,112 +7413,109 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>15175</v>
+        <v>12855</v>
       </c>
       <c r="C8">
-        <v>10532</v>
+        <v>12534</v>
       </c>
       <c r="D8">
-        <v>18665</v>
+        <v>12880</v>
       </c>
       <c r="E8">
-        <v>30611</v>
+        <v>24155</v>
       </c>
       <c r="F8">
-        <v>19318</v>
+        <v>27683</v>
       </c>
       <c r="G8">
-        <v>34652</v>
+        <v>26121</v>
       </c>
       <c r="H8">
-        <v>49447</v>
+        <v>42981</v>
       </c>
       <c r="I8">
-        <v>47112</v>
+        <v>52237</v>
       </c>
       <c r="J8">
-        <v>57604</v>
+        <v>45108</v>
       </c>
       <c r="K8">
-        <v>64187</v>
+        <v>78429</v>
       </c>
       <c r="L8">
-        <v>57560</v>
+        <v>93689</v>
       </c>
       <c r="M8">
-        <v>61872</v>
+        <v>82111</v>
       </c>
       <c r="N8">
-        <v>104592</v>
+        <v>143644</v>
       </c>
       <c r="O8">
-        <v>86222</v>
+        <v>165527</v>
       </c>
       <c r="P8">
-        <v>99272</v>
+        <v>139911</v>
       </c>
       <c r="Q8">
-        <v>156710</v>
+        <v>234981</v>
       </c>
       <c r="R8">
-        <v>139222</v>
+        <v>297454</v>
       </c>
       <c r="S8">
-        <v>178352</v>
+        <v>250011</v>
       </c>
       <c r="T8">
-        <v>281581</v>
+        <v>401837</v>
       </c>
       <c r="U8">
-        <v>231955</v>
+        <v>479434</v>
       </c>
       <c r="V8">
-        <v>271806</v>
+        <v>434031</v>
       </c>
       <c r="W8">
-        <v>418791</v>
+        <v>736417</v>
       </c>
       <c r="X8">
-        <v>367524</v>
+        <v>762283</v>
       </c>
       <c r="Y8">
-        <v>482633</v>
+        <v>738824</v>
       </c>
       <c r="Z8">
-        <v>879596</v>
+        <v>1059074</v>
       </c>
       <c r="AA8">
-        <v>801146</v>
+        <v>1154689</v>
       </c>
       <c r="AB8">
-        <v>917005</v>
+        <v>1208508</v>
       </c>
       <c r="AC8">
-        <v>1146271</v>
+        <v>1238877</v>
       </c>
       <c r="AD8">
-        <v>1611597</v>
+        <v>1785748</v>
       </c>
       <c r="AE8">
-        <v>2119431</v>
+        <v>1882254</v>
       </c>
       <c r="AF8">
-        <v>2724343</v>
+        <v>1076840</v>
       </c>
       <c r="AG8">
-        <v>3214702</v>
+        <v>2029998</v>
       </c>
       <c r="AH8">
-        <v>2519274</v>
-      </c>
-      <c r="AI8">
-        <v>3116621</v>
+        <v>2295697</v>
       </c>
       <c r="AJ8">
-        <v>3967946</v>
+        <v>1766091</v>
       </c>
       <c r="AK8">
-        <v>3761230</v>
+        <v>2103399</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
@@ -6006,112 +7523,109 @@
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>15336</v>
+        <v>13342</v>
       </c>
       <c r="C9">
-        <v>10878</v>
+        <v>12190</v>
       </c>
       <c r="D9">
-        <v>19208</v>
+        <v>13339</v>
       </c>
       <c r="E9">
-        <v>30319</v>
+        <v>24818</v>
       </c>
       <c r="F9">
-        <v>19518</v>
+        <v>28715</v>
       </c>
       <c r="G9">
-        <v>35146</v>
+        <v>26023</v>
       </c>
       <c r="H9">
-        <v>48907</v>
+        <v>43248</v>
       </c>
       <c r="I9">
-        <v>47260</v>
+        <v>51604</v>
       </c>
       <c r="J9">
-        <v>57953</v>
+        <v>44387</v>
       </c>
       <c r="K9">
-        <v>64609</v>
+        <v>78085</v>
       </c>
       <c r="L9">
-        <v>56947</v>
+        <v>91969</v>
       </c>
       <c r="M9">
-        <v>63399</v>
+        <v>81363</v>
       </c>
       <c r="N9">
-        <v>108911</v>
+        <v>144593</v>
       </c>
       <c r="O9">
-        <v>87291</v>
+        <v>167906</v>
       </c>
       <c r="P9">
-        <v>101254</v>
+        <v>131529</v>
       </c>
       <c r="Q9">
-        <v>164243</v>
+        <v>229158</v>
       </c>
       <c r="R9">
-        <v>139187</v>
+        <v>289837</v>
       </c>
       <c r="S9">
-        <v>179306</v>
+        <v>249958</v>
       </c>
       <c r="T9">
-        <v>281126</v>
+        <v>398320</v>
       </c>
       <c r="U9">
-        <v>237937</v>
+        <v>468887</v>
       </c>
       <c r="V9">
-        <v>273310</v>
+        <v>419210</v>
       </c>
       <c r="W9">
-        <v>429774</v>
+        <v>725383</v>
       </c>
       <c r="X9">
-        <v>384259</v>
+        <v>750252</v>
       </c>
       <c r="Y9">
-        <v>485817</v>
+        <v>729594</v>
       </c>
       <c r="Z9">
-        <v>898830</v>
+        <v>1022238</v>
       </c>
       <c r="AA9">
-        <v>817501</v>
+        <v>1113228</v>
       </c>
       <c r="AB9">
-        <v>922515</v>
+        <v>1189881</v>
       </c>
       <c r="AC9">
-        <v>1160866</v>
+        <v>1164261</v>
       </c>
       <c r="AD9">
-        <v>1577212</v>
+        <v>1681833</v>
       </c>
       <c r="AE9">
-        <v>2154590</v>
+        <v>1843243</v>
       </c>
       <c r="AF9">
-        <v>2697040</v>
+        <v>1012556</v>
       </c>
       <c r="AG9">
-        <v>3094046</v>
+        <v>1871370</v>
       </c>
       <c r="AH9">
-        <v>2514220</v>
-      </c>
-      <c r="AI9">
-        <v>2933376</v>
+        <v>2148817</v>
       </c>
       <c r="AJ9">
-        <v>3633823</v>
+        <v>1614556</v>
       </c>
       <c r="AK9">
-        <v>3578422</v>
+        <v>1976971</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
@@ -6119,112 +7633,109 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>15393</v>
+        <v>13420</v>
       </c>
       <c r="C10">
-        <v>10861</v>
+        <v>12557</v>
       </c>
       <c r="D10">
-        <v>18713</v>
+        <v>13333</v>
       </c>
       <c r="E10">
-        <v>30401</v>
+        <v>25023</v>
       </c>
       <c r="F10">
-        <v>20229</v>
+        <v>27149</v>
       </c>
       <c r="G10">
-        <v>35232</v>
+        <v>25743</v>
       </c>
       <c r="H10">
-        <v>49522</v>
+        <v>43172</v>
       </c>
       <c r="I10">
-        <v>47316</v>
+        <v>49884</v>
       </c>
       <c r="J10">
-        <v>58462</v>
+        <v>44412</v>
       </c>
       <c r="K10">
-        <v>64828</v>
+        <v>79326</v>
       </c>
       <c r="L10">
-        <v>57555</v>
+        <v>91636</v>
       </c>
       <c r="M10">
-        <v>63417</v>
+        <v>81814</v>
       </c>
       <c r="N10">
-        <v>104756</v>
+        <v>141531</v>
       </c>
       <c r="O10">
-        <v>88116</v>
+        <v>172069</v>
       </c>
       <c r="P10">
-        <v>101146</v>
+        <v>140260</v>
       </c>
       <c r="Q10">
-        <v>162380</v>
+        <v>235961</v>
       </c>
       <c r="R10">
-        <v>144248</v>
+        <v>286190</v>
       </c>
       <c r="S10">
-        <v>176991</v>
+        <v>244192</v>
       </c>
       <c r="T10">
-        <v>286236</v>
+        <v>398066</v>
       </c>
       <c r="U10">
-        <v>244206</v>
+        <v>473331</v>
       </c>
       <c r="V10">
-        <v>280181</v>
+        <v>418611</v>
       </c>
       <c r="W10">
-        <v>430384</v>
+        <v>702691</v>
       </c>
       <c r="X10">
-        <v>392564</v>
+        <v>742806</v>
       </c>
       <c r="Y10">
-        <v>485626</v>
+        <v>712933</v>
       </c>
       <c r="Z10">
-        <v>883145</v>
+        <v>984808</v>
       </c>
       <c r="AA10">
-        <v>791889</v>
+        <v>1091304</v>
       </c>
       <c r="AB10">
-        <v>934989</v>
+        <v>1141094</v>
       </c>
       <c r="AC10">
-        <v>1145443</v>
+        <v>1078073</v>
       </c>
       <c r="AD10">
-        <v>1590504</v>
+        <v>1633585</v>
       </c>
       <c r="AE10">
-        <v>2090640</v>
+        <v>1758728</v>
       </c>
       <c r="AF10">
-        <v>2607853</v>
+        <v>940255</v>
       </c>
       <c r="AG10">
-        <v>3033822</v>
+        <v>1757088</v>
       </c>
       <c r="AH10">
-        <v>2437994</v>
-      </c>
-      <c r="AI10">
-        <v>2667903</v>
+        <v>2007885</v>
       </c>
       <c r="AJ10">
-        <v>3344776</v>
+        <v>1536253</v>
       </c>
       <c r="AK10">
-        <v>3282266</v>
+        <v>1822028</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
@@ -6232,112 +7743,109 @@
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>15055</v>
+        <v>13059</v>
       </c>
       <c r="C11">
-        <v>10185</v>
+        <v>12181</v>
       </c>
       <c r="D11">
-        <v>18776</v>
+        <v>13370</v>
       </c>
       <c r="E11">
-        <v>31091</v>
+        <v>24966</v>
       </c>
       <c r="F11">
-        <v>20075</v>
+        <v>27761</v>
       </c>
       <c r="G11">
-        <v>35612</v>
+        <v>25274</v>
       </c>
       <c r="H11">
-        <v>49210</v>
+        <v>43900</v>
       </c>
       <c r="I11">
-        <v>47699</v>
+        <v>50411</v>
       </c>
       <c r="J11">
-        <v>59318</v>
+        <v>44901</v>
       </c>
       <c r="K11">
-        <v>65963</v>
+        <v>78575</v>
       </c>
       <c r="L11">
-        <v>59243</v>
+        <v>93231</v>
       </c>
       <c r="M11">
-        <v>63711</v>
+        <v>80268</v>
       </c>
       <c r="N11">
-        <v>105100</v>
+        <v>138355</v>
       </c>
       <c r="O11">
-        <v>88351</v>
+        <v>171963</v>
       </c>
       <c r="P11">
-        <v>99862</v>
+        <v>133903</v>
       </c>
       <c r="Q11">
-        <v>160972</v>
+        <v>234109</v>
       </c>
       <c r="R11">
-        <v>142171</v>
+        <v>290104</v>
       </c>
       <c r="S11">
-        <v>182719</v>
+        <v>236679</v>
       </c>
       <c r="T11">
-        <v>279262</v>
+        <v>400660</v>
       </c>
       <c r="U11">
-        <v>233946</v>
+        <v>468985</v>
       </c>
       <c r="V11">
-        <v>275872</v>
+        <v>406281</v>
       </c>
       <c r="W11">
-        <v>424386</v>
+        <v>685392</v>
       </c>
       <c r="X11">
-        <v>385855</v>
+        <v>733907</v>
       </c>
       <c r="Y11">
-        <v>487543</v>
+        <v>697472</v>
       </c>
       <c r="Z11">
-        <v>889867</v>
+        <v>933511</v>
       </c>
       <c r="AA11">
-        <v>818189</v>
+        <v>1042577</v>
       </c>
       <c r="AB11">
-        <v>918207</v>
+        <v>1109812</v>
       </c>
       <c r="AC11">
-        <v>1134326</v>
+        <v>1026309</v>
       </c>
       <c r="AD11">
-        <v>1562639</v>
+        <v>1567459</v>
       </c>
       <c r="AE11">
-        <v>2046887</v>
+        <v>1690460</v>
       </c>
       <c r="AF11">
-        <v>2467055</v>
+        <v>876352</v>
       </c>
       <c r="AG11">
-        <v>2942580</v>
+        <v>1672217</v>
       </c>
       <c r="AH11">
-        <v>2398317</v>
-      </c>
-      <c r="AI11">
-        <v>2412092</v>
+        <v>1916531</v>
       </c>
       <c r="AJ11">
-        <v>3112717</v>
+        <v>1408061</v>
       </c>
       <c r="AK11">
-        <v>2990847</v>
+        <v>1691198</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
@@ -6345,112 +7853,109 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>15066</v>
+        <v>13290</v>
       </c>
       <c r="C12">
-        <v>10710</v>
+        <v>12382</v>
       </c>
       <c r="D12">
-        <v>19038</v>
+        <v>13135</v>
       </c>
       <c r="E12">
-        <v>31341</v>
+        <v>24676</v>
       </c>
       <c r="F12">
-        <v>20096</v>
+        <v>26865</v>
       </c>
       <c r="G12">
-        <v>35604</v>
+        <v>25826</v>
       </c>
       <c r="H12">
-        <v>50067</v>
+        <v>44080</v>
       </c>
       <c r="I12">
-        <v>47757</v>
+        <v>50101</v>
       </c>
       <c r="J12">
-        <v>59265</v>
+        <v>44496</v>
       </c>
       <c r="K12">
-        <v>66469</v>
+        <v>78756</v>
       </c>
       <c r="L12">
-        <v>59422</v>
+        <v>92146</v>
       </c>
       <c r="M12">
-        <v>64845</v>
+        <v>80353</v>
       </c>
       <c r="N12">
-        <v>106948</v>
+        <v>143441</v>
       </c>
       <c r="O12">
-        <v>87755</v>
+        <v>168356</v>
       </c>
       <c r="P12">
-        <v>100206</v>
+        <v>132500</v>
       </c>
       <c r="Q12">
-        <v>170441</v>
+        <v>232611</v>
       </c>
       <c r="R12">
-        <v>144386</v>
+        <v>293628</v>
       </c>
       <c r="S12">
-        <v>177105</v>
+        <v>243368</v>
       </c>
       <c r="T12">
-        <v>284749</v>
+        <v>392652</v>
       </c>
       <c r="U12">
-        <v>246357</v>
+        <v>452253</v>
       </c>
       <c r="V12">
-        <v>274083</v>
+        <v>397791</v>
       </c>
       <c r="W12">
-        <v>429366</v>
+        <v>672155</v>
       </c>
       <c r="X12">
-        <v>394198</v>
+        <v>714084</v>
       </c>
       <c r="Y12">
-        <v>492711</v>
+        <v>683555</v>
       </c>
       <c r="Z12">
-        <v>896298</v>
+        <v>897783</v>
       </c>
       <c r="AA12">
-        <v>818217</v>
+        <v>1032647</v>
       </c>
       <c r="AB12">
-        <v>926819</v>
+        <v>1079421</v>
       </c>
       <c r="AC12">
-        <v>1135463</v>
+        <v>967183</v>
       </c>
       <c r="AD12">
-        <v>1568628</v>
+        <v>1508336</v>
       </c>
       <c r="AE12">
-        <v>2049165</v>
+        <v>1628300</v>
       </c>
       <c r="AF12">
-        <v>2408549</v>
+        <v>814701</v>
       </c>
       <c r="AG12">
-        <v>2861035</v>
+        <v>1584686</v>
       </c>
       <c r="AH12">
-        <v>2320160</v>
-      </c>
-      <c r="AI12">
-        <v>2197620</v>
+        <v>1834802</v>
       </c>
       <c r="AJ12">
-        <v>2792566</v>
+        <v>1290362</v>
       </c>
       <c r="AK12">
-        <v>2735769</v>
+        <v>1583232</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
@@ -6458,112 +7963,109 @@
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>15018</v>
+        <v>13049</v>
       </c>
       <c r="C13">
-        <v>10546</v>
+        <v>12023</v>
       </c>
       <c r="D13">
-        <v>19286</v>
+        <v>13613</v>
       </c>
       <c r="E13">
-        <v>31255</v>
+        <v>24677</v>
       </c>
       <c r="F13">
-        <v>19961</v>
+        <v>28020</v>
       </c>
       <c r="G13">
-        <v>34533</v>
+        <v>25212</v>
       </c>
       <c r="H13">
-        <v>49686</v>
+        <v>42114</v>
       </c>
       <c r="I13">
-        <v>47218</v>
+        <v>50001</v>
       </c>
       <c r="J13">
-        <v>57967</v>
+        <v>44835</v>
       </c>
       <c r="K13">
-        <v>66864</v>
+        <v>78199</v>
       </c>
       <c r="L13">
-        <v>58744</v>
+        <v>90848</v>
       </c>
       <c r="M13">
-        <v>63929</v>
+        <v>78792</v>
       </c>
       <c r="N13">
-        <v>109118</v>
+        <v>145526</v>
       </c>
       <c r="O13">
-        <v>88095</v>
+        <v>168644</v>
       </c>
       <c r="P13">
-        <v>101126</v>
+        <v>129230</v>
       </c>
       <c r="Q13">
-        <v>167487</v>
+        <v>227886</v>
       </c>
       <c r="R13">
-        <v>142810</v>
+        <v>288971</v>
       </c>
       <c r="S13">
-        <v>176129</v>
+        <v>242856</v>
       </c>
       <c r="T13">
-        <v>277135</v>
+        <v>383012</v>
       </c>
       <c r="U13">
-        <v>242266</v>
+        <v>454881</v>
       </c>
       <c r="V13">
-        <v>272205</v>
+        <v>394307</v>
       </c>
       <c r="W13">
-        <v>434841</v>
+        <v>640767</v>
       </c>
       <c r="X13">
-        <v>372156</v>
+        <v>709669</v>
       </c>
       <c r="Y13">
-        <v>493263</v>
+        <v>670457</v>
       </c>
       <c r="Z13">
-        <v>865802</v>
+        <v>840020</v>
       </c>
       <c r="AA13">
-        <v>806144</v>
+        <v>997229</v>
       </c>
       <c r="AB13">
-        <v>921053</v>
+        <v>1063590</v>
       </c>
       <c r="AC13">
-        <v>1111244</v>
+        <v>913088</v>
       </c>
       <c r="AD13">
-        <v>1551169</v>
+        <v>1435450</v>
       </c>
       <c r="AE13">
-        <v>2018295</v>
+        <v>1567152</v>
       </c>
       <c r="AF13">
-        <v>2260792</v>
+        <v>775608</v>
       </c>
       <c r="AG13">
-        <v>2748068</v>
+        <v>1521106</v>
       </c>
       <c r="AH13">
-        <v>2285382</v>
-      </c>
-      <c r="AI13">
-        <v>1952996</v>
+        <v>1755260</v>
       </c>
       <c r="AJ13">
-        <v>2518798</v>
+        <v>1212957</v>
       </c>
       <c r="AK13">
-        <v>2475962</v>
+        <v>1460021</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
@@ -6571,112 +8073,109 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>15021</v>
+        <v>13025</v>
       </c>
       <c r="C14">
-        <v>10706</v>
+        <v>12234</v>
       </c>
       <c r="D14">
-        <v>18188</v>
+        <v>12736</v>
       </c>
       <c r="E14">
-        <v>30813</v>
+        <v>24620</v>
       </c>
       <c r="F14">
-        <v>19233</v>
+        <v>26975</v>
       </c>
       <c r="G14">
-        <v>34579</v>
+        <v>25741</v>
       </c>
       <c r="H14">
-        <v>50735</v>
+        <v>43035</v>
       </c>
       <c r="I14">
-        <v>46564</v>
+        <v>50119</v>
       </c>
       <c r="J14">
-        <v>58264</v>
+        <v>42344</v>
       </c>
       <c r="K14">
-        <v>65839</v>
+        <v>77959</v>
       </c>
       <c r="L14">
-        <v>58421</v>
+        <v>90627</v>
       </c>
       <c r="M14">
-        <v>64484</v>
+        <v>76811</v>
       </c>
       <c r="N14">
-        <v>104603</v>
+        <v>137900</v>
       </c>
       <c r="O14">
-        <v>89072</v>
+        <v>165689</v>
       </c>
       <c r="P14">
-        <v>101199</v>
+        <v>132745</v>
       </c>
       <c r="Q14">
-        <v>166490</v>
+        <v>226856</v>
       </c>
       <c r="R14">
-        <v>140437</v>
+        <v>279026</v>
       </c>
       <c r="S14">
-        <v>183726</v>
+        <v>233774</v>
       </c>
       <c r="T14">
-        <v>286437</v>
+        <v>383432</v>
       </c>
       <c r="U14">
-        <v>236491</v>
+        <v>445478</v>
       </c>
       <c r="V14">
-        <v>279569</v>
+        <v>408136</v>
       </c>
       <c r="W14">
-        <v>415246</v>
+        <v>638758</v>
       </c>
       <c r="X14">
-        <v>381467</v>
+        <v>706049</v>
       </c>
       <c r="Y14">
-        <v>489012</v>
+        <v>662196</v>
       </c>
       <c r="Z14">
-        <v>877491</v>
+        <v>820059</v>
       </c>
       <c r="AA14">
-        <v>793994</v>
+        <v>997269</v>
       </c>
       <c r="AB14">
-        <v>905641</v>
+        <v>1035938</v>
       </c>
       <c r="AC14">
-        <v>1097862</v>
+        <v>887361</v>
       </c>
       <c r="AD14">
-        <v>1553131</v>
+        <v>1400949</v>
       </c>
       <c r="AE14">
-        <v>2013212</v>
+        <v>1540820</v>
       </c>
       <c r="AF14">
-        <v>2188602</v>
+        <v>719907</v>
       </c>
       <c r="AG14">
-        <v>2630142</v>
+        <v>1417566</v>
       </c>
       <c r="AH14">
-        <v>2221618</v>
-      </c>
-      <c r="AI14">
-        <v>1745050</v>
+        <v>1673978</v>
       </c>
       <c r="AJ14">
-        <v>2221618</v>
+        <v>1122429</v>
       </c>
       <c r="AK14">
-        <v>2242308</v>
+        <v>1395759</v>
       </c>
     </row>
   </sheetData>
